--- a/CENTRALAB.xlsx
+++ b/CENTRALAB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmenghi\Desktop\RUTEO\SALUD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22732886-B498-4F23-A06F-EC74BE66D951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0942DC0-303E-4F27-8F4E-78397BFB0E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F34F11FB-2337-4345-9940-C9244A159C75}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A9066B9D-0607-4108-BD8B-F3B967C34D2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3082" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2809" uniqueCount="454">
   <si>
     <t>Equipo</t>
   </si>
@@ -174,7 +174,7 @@
     <t>Calidad – GEO</t>
   </si>
   <si>
-    <t>1229551457</t>
+    <t>1229631635</t>
   </si>
   <si>
     <t>CENTRALAB</t>
@@ -210,10 +210,10 @@
     <t>11-47772003</t>
   </si>
   <si>
-    <t>627X37360417</t>
-  </si>
-  <si>
-    <t>000000001229551457</t>
+    <t>627X37416227</t>
+  </si>
+  <si>
+    <t>000000001229631635</t>
   </si>
   <si>
     <t>45</t>
@@ -225,7 +225,7 @@
     <t>Envio</t>
   </si>
   <si>
-    <t>20251126</t>
+    <t>20251127</t>
   </si>
   <si>
     <t>BIO SPX FROZEN -DOMESTIC-   -20ºC</t>
@@ -249,43 +249,16 @@
     <t>0</t>
   </si>
   <si>
-    <t>1229551458</t>
-  </si>
-  <si>
-    <t>627X37360416</t>
-  </si>
-  <si>
-    <t>000000001229551458</t>
-  </si>
-  <si>
-    <t>1229551592</t>
-  </si>
-  <si>
-    <t>627X37360415</t>
-  </si>
-  <si>
-    <t>000000001229551592</t>
-  </si>
-  <si>
-    <t>1229551593</t>
-  </si>
-  <si>
-    <t>627X37360414</t>
-  </si>
-  <si>
-    <t>000000001229551593</t>
-  </si>
-  <si>
-    <t>1229551596</t>
-  </si>
-  <si>
-    <t>627X37360420</t>
-  </si>
-  <si>
-    <t>000000001229551596</t>
-  </si>
-  <si>
-    <t>1229551837</t>
+    <t>1229632144</t>
+  </si>
+  <si>
+    <t>627X37360422</t>
+  </si>
+  <si>
+    <t>000000001229632144</t>
+  </si>
+  <si>
+    <t>1229632148</t>
   </si>
   <si>
     <t>CNEL. NICETO VEGA 5651 PISO 3</t>
@@ -294,10 +267,10 @@
     <t>Ocasa Inc (Miami)</t>
   </si>
   <si>
-    <t>PK2XYFM60683</t>
-  </si>
-  <si>
-    <t>000000001229551837</t>
+    <t>PK25MLP61053</t>
+  </si>
+  <si>
+    <t>000000001229632148</t>
   </si>
   <si>
     <t>46</t>
@@ -312,7 +285,7 @@
     <t>Envío muestras biológ. y genét. CONG</t>
   </si>
   <si>
-    <t>1229566027</t>
+    <t>1229655380</t>
   </si>
   <si>
     <t>CNEL. NICETO VEGA 5651, 3RD FLOOR</t>
@@ -321,10 +294,10 @@
     <t>+54 11 45569514</t>
   </si>
   <si>
-    <t>M7832422</t>
-  </si>
-  <si>
-    <t>000000001229566027</t>
+    <t>M7832424</t>
+  </si>
+  <si>
+    <t>000000001229655380</t>
   </si>
   <si>
     <t>36</t>
@@ -339,61 +312,25 @@
     <t>Envío de muestras biológ. y genét. - RED</t>
   </si>
   <si>
-    <t>1229568675</t>
+    <t>1229655852</t>
+  </si>
+  <si>
+    <t>M7832421</t>
+  </si>
+  <si>
+    <t>000000001229655852</t>
+  </si>
+  <si>
+    <t>1229655854</t>
   </si>
   <si>
     <t>CNEL. NICETO VEGA 5651</t>
   </si>
   <si>
-    <t>627X36548151</t>
-  </si>
-  <si>
-    <t>000000001229568675</t>
-  </si>
-  <si>
-    <t>1229568678</t>
-  </si>
-  <si>
-    <t>627X36898208</t>
-  </si>
-  <si>
-    <t>000000001229568678</t>
-  </si>
-  <si>
-    <t>1229569311</t>
-  </si>
-  <si>
-    <t>627X37418950</t>
-  </si>
-  <si>
-    <t>000000001229569311</t>
-  </si>
-  <si>
-    <t>1229569313</t>
-  </si>
-  <si>
-    <t>627X36322363</t>
-  </si>
-  <si>
-    <t>000000001229569313</t>
-  </si>
-  <si>
-    <t>1229569314</t>
-  </si>
-  <si>
-    <t>627X37018015</t>
-  </si>
-  <si>
-    <t>000000001229569314</t>
-  </si>
-  <si>
-    <t>1229569316</t>
-  </si>
-  <si>
-    <t>627X37018014</t>
-  </si>
-  <si>
-    <t>000000001229569316</t>
+    <t>627X37391358</t>
+  </si>
+  <si>
+    <t>000000001229655854</t>
   </si>
   <si>
     <t>14</t>
@@ -405,1090 +342,1048 @@
     <t>Dist. de Muestras biológicas / genét AMB</t>
   </si>
   <si>
-    <t>1229569317</t>
+    <t>1229655855</t>
+  </si>
+  <si>
+    <t>627X37317712</t>
+  </si>
+  <si>
+    <t>000000001229655855</t>
+  </si>
+  <si>
+    <t>1229655856</t>
+  </si>
+  <si>
+    <t>627X36922706</t>
+  </si>
+  <si>
+    <t>000000001229655856</t>
+  </si>
+  <si>
+    <t>1229655857</t>
   </si>
   <si>
     <t>Q2 SOLUTIONS, CENTRALAB</t>
   </si>
   <si>
-    <t>620X36616248</t>
-  </si>
-  <si>
-    <t>000000001229569317</t>
-  </si>
-  <si>
-    <t>1229575727</t>
-  </si>
-  <si>
-    <t>627X36548154</t>
-  </si>
-  <si>
-    <t>000000001229575727</t>
-  </si>
-  <si>
-    <t>1229592608</t>
+    <t>620X36616249</t>
+  </si>
+  <si>
+    <t>000000001229655857</t>
+  </si>
+  <si>
+    <t>1229655859</t>
+  </si>
+  <si>
+    <t>627X37018016</t>
+  </si>
+  <si>
+    <t>000000001229655859</t>
+  </si>
+  <si>
+    <t>1229656382</t>
+  </si>
+  <si>
+    <t>627X36186882</t>
+  </si>
+  <si>
+    <t>000000001229656382</t>
+  </si>
+  <si>
+    <t>1229656384</t>
+  </si>
+  <si>
+    <t>627X36186883</t>
+  </si>
+  <si>
+    <t>000000001229656384</t>
+  </si>
+  <si>
+    <t>1229669645</t>
   </si>
   <si>
     <t>NICETO VEGA 5651</t>
   </si>
   <si>
-    <t>627X37421227</t>
-  </si>
-  <si>
-    <t>000000001229592608</t>
-  </si>
-  <si>
-    <t>1229592609</t>
-  </si>
-  <si>
-    <t>627X36875529</t>
-  </si>
-  <si>
-    <t>000000001229592609</t>
-  </si>
-  <si>
-    <t>1229593751</t>
-  </si>
-  <si>
-    <t>627X37337691</t>
-  </si>
-  <si>
-    <t>000000001229593751</t>
-  </si>
-  <si>
-    <t>1229593752</t>
-  </si>
-  <si>
-    <t>627X37059545</t>
-  </si>
-  <si>
-    <t>000000001229593752</t>
-  </si>
-  <si>
-    <t>1229593753</t>
-  </si>
-  <si>
-    <t>627X36883396</t>
-  </si>
-  <si>
-    <t>000000001229593753</t>
-  </si>
-  <si>
-    <t>1229593754</t>
-  </si>
-  <si>
-    <t>627X36828053</t>
-  </si>
-  <si>
-    <t>000000001229593754</t>
-  </si>
-  <si>
-    <t>1229593756</t>
-  </si>
-  <si>
-    <t>627X37017438</t>
-  </si>
-  <si>
-    <t>000000001229593756</t>
-  </si>
-  <si>
-    <t>1229593757</t>
-  </si>
-  <si>
-    <t>627X37469550</t>
-  </si>
-  <si>
-    <t>000000001229593757</t>
-  </si>
-  <si>
-    <t>1229593759</t>
-  </si>
-  <si>
-    <t>627X36831265</t>
-  </si>
-  <si>
-    <t>000000001229593759</t>
-  </si>
-  <si>
-    <t>1229593952</t>
-  </si>
-  <si>
-    <t>627X37535519</t>
-  </si>
-  <si>
-    <t>000000001229593952</t>
-  </si>
-  <si>
-    <t>1229593953</t>
-  </si>
-  <si>
-    <t>627X36507220</t>
-  </si>
-  <si>
-    <t>000000001229593953</t>
-  </si>
-  <si>
-    <t>1229593957</t>
-  </si>
-  <si>
-    <t>620X37468981</t>
-  </si>
-  <si>
-    <t>000000001229593957</t>
-  </si>
-  <si>
-    <t>1229594015</t>
-  </si>
-  <si>
-    <t>620X36116544</t>
-  </si>
-  <si>
-    <t>000000001229594015</t>
-  </si>
-  <si>
-    <t>1229594063</t>
-  </si>
-  <si>
-    <t>627X36281650</t>
-  </si>
-  <si>
-    <t>000000001229594063</t>
-  </si>
-  <si>
-    <t>1229594067</t>
-  </si>
-  <si>
-    <t>627X36975155</t>
-  </si>
-  <si>
-    <t>000000001229594067</t>
-  </si>
-  <si>
-    <t>1229594068</t>
-  </si>
-  <si>
-    <t>627X36299859</t>
-  </si>
-  <si>
-    <t>000000001229594068</t>
-  </si>
-  <si>
-    <t>1229594069</t>
-  </si>
-  <si>
-    <t>627X37362102</t>
-  </si>
-  <si>
-    <t>000000001229594069</t>
-  </si>
-  <si>
-    <t>1229594070</t>
-  </si>
-  <si>
-    <t>627X36872000</t>
-  </si>
-  <si>
-    <t>000000001229594070</t>
-  </si>
-  <si>
-    <t>1229594263</t>
-  </si>
-  <si>
-    <t>620X37391377</t>
-  </si>
-  <si>
-    <t>000000001229594263</t>
-  </si>
-  <si>
-    <t>1229594265</t>
-  </si>
-  <si>
-    <t>627X37542409</t>
-  </si>
-  <si>
-    <t>000000001229594265</t>
-  </si>
-  <si>
-    <t>1229594267</t>
-  </si>
-  <si>
-    <t>627X36389252</t>
-  </si>
-  <si>
-    <t>000000001229594267</t>
-  </si>
-  <si>
-    <t>1229594268</t>
-  </si>
-  <si>
-    <t>M7829254</t>
-  </si>
-  <si>
-    <t>000000001229594268</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HUMAN BIOLOGICAL SUBSTANCE                  CATEGORY B UN3373</t>
-  </si>
-  <si>
-    <t>1229594269</t>
-  </si>
-  <si>
-    <t>627X37109598</t>
-  </si>
-  <si>
-    <t>000000001229594269</t>
-  </si>
-  <si>
-    <t>1229594441</t>
-  </si>
-  <si>
-    <t>627X37038863</t>
-  </si>
-  <si>
-    <t>000000001229594441</t>
-  </si>
-  <si>
-    <t>1229594442</t>
-  </si>
-  <si>
-    <t>627X36948831</t>
-  </si>
-  <si>
-    <t>000000001229594442</t>
-  </si>
-  <si>
-    <t>1229594444</t>
-  </si>
-  <si>
-    <t>627X37423052</t>
-  </si>
-  <si>
-    <t>000000001229594444</t>
-  </si>
-  <si>
-    <t>1229594446</t>
-  </si>
-  <si>
-    <t>627X36883348</t>
-  </si>
-  <si>
-    <t>000000001229594446</t>
-  </si>
-  <si>
-    <t>1229594448</t>
-  </si>
-  <si>
-    <t>627X37292763</t>
-  </si>
-  <si>
-    <t>000000001229594448</t>
-  </si>
-  <si>
-    <t>1229594449</t>
-  </si>
-  <si>
-    <t>627X37207295</t>
-  </si>
-  <si>
-    <t>000000001229594449</t>
-  </si>
-  <si>
-    <t>1229594601</t>
-  </si>
-  <si>
-    <t>620X36320572</t>
-  </si>
-  <si>
-    <t>000000001229594601</t>
-  </si>
-  <si>
-    <t>1229594602</t>
-  </si>
-  <si>
-    <t>627X36926844</t>
-  </si>
-  <si>
-    <t>000000001229594602</t>
-  </si>
-  <si>
-    <t>1229594605</t>
-  </si>
-  <si>
-    <t>627X33763311</t>
-  </si>
-  <si>
-    <t>000000001229594605</t>
-  </si>
-  <si>
-    <t>1229594607</t>
-  </si>
-  <si>
-    <t>627X37535390</t>
-  </si>
-  <si>
-    <t>000000001229594607</t>
-  </si>
-  <si>
-    <t>1229594608</t>
-  </si>
-  <si>
-    <t>627X37292845</t>
-  </si>
-  <si>
-    <t>000000001229594608</t>
-  </si>
-  <si>
-    <t>1229594741</t>
-  </si>
-  <si>
-    <t>M7829160</t>
-  </si>
-  <si>
-    <t>000000001229594741</t>
+    <t>627X35216545</t>
+  </si>
+  <si>
+    <t>000000001229669645</t>
+  </si>
+  <si>
+    <t>1229669648</t>
+  </si>
+  <si>
+    <t>620X36302514</t>
+  </si>
+  <si>
+    <t>000000001229669648</t>
+  </si>
+  <si>
+    <t>1229669650</t>
+  </si>
+  <si>
+    <t>627X33683317</t>
+  </si>
+  <si>
+    <t>000000001229669650</t>
+  </si>
+  <si>
+    <t>1229669875</t>
+  </si>
+  <si>
+    <t>627X36906730</t>
+  </si>
+  <si>
+    <t>000000001229669875</t>
+  </si>
+  <si>
+    <t>1229669876</t>
+  </si>
+  <si>
+    <t>627X36906733</t>
+  </si>
+  <si>
+    <t>000000001229669876</t>
+  </si>
+  <si>
+    <t>1229669877</t>
+  </si>
+  <si>
+    <t>627X36574449</t>
+  </si>
+  <si>
+    <t>000000001229669877</t>
+  </si>
+  <si>
+    <t>1229669879</t>
+  </si>
+  <si>
+    <t>627X37017440</t>
+  </si>
+  <si>
+    <t>000000001229669879</t>
+  </si>
+  <si>
+    <t>1229670202</t>
+  </si>
+  <si>
+    <t>627X36947576</t>
+  </si>
+  <si>
+    <t>000000001229670202</t>
+  </si>
+  <si>
+    <t>1229670204</t>
+  </si>
+  <si>
+    <t>627X32060599</t>
+  </si>
+  <si>
+    <t>000000001229670204</t>
+  </si>
+  <si>
+    <t>1229670205</t>
+  </si>
+  <si>
+    <t>627X35233023</t>
+  </si>
+  <si>
+    <t>000000001229670205</t>
+  </si>
+  <si>
+    <t>1229670207</t>
+  </si>
+  <si>
+    <t>627X36900962</t>
+  </si>
+  <si>
+    <t>000000001229670207</t>
+  </si>
+  <si>
+    <t>1229670209</t>
+  </si>
+  <si>
+    <t>627X37468189</t>
+  </si>
+  <si>
+    <t>000000001229670209</t>
+  </si>
+  <si>
+    <t>1229670363</t>
+  </si>
+  <si>
+    <t>627X37466930</t>
+  </si>
+  <si>
+    <t>000000001229670363</t>
+  </si>
+  <si>
+    <t>1229670365</t>
+  </si>
+  <si>
+    <t>627X36256057</t>
+  </si>
+  <si>
+    <t>000000001229670365</t>
+  </si>
+  <si>
+    <t>1229670367</t>
+  </si>
+  <si>
+    <t>627X37056385</t>
+  </si>
+  <si>
+    <t>000000001229670367</t>
+  </si>
+  <si>
+    <t>1229670369</t>
+  </si>
+  <si>
+    <t>627X37471779</t>
+  </si>
+  <si>
+    <t>000000001229670369</t>
+  </si>
+  <si>
+    <t>1229670562</t>
+  </si>
+  <si>
+    <t>627X36900096</t>
+  </si>
+  <si>
+    <t>000000001229670562</t>
+  </si>
+  <si>
+    <t>1229670565</t>
+  </si>
+  <si>
+    <t>627X31114244</t>
+  </si>
+  <si>
+    <t>000000001229670565</t>
+  </si>
+  <si>
+    <t>1229670711</t>
+  </si>
+  <si>
+    <t>627X37469552</t>
+  </si>
+  <si>
+    <t>000000001229670711</t>
+  </si>
+  <si>
+    <t>1229670715</t>
+  </si>
+  <si>
+    <t>627X37421229</t>
+  </si>
+  <si>
+    <t>000000001229670715</t>
+  </si>
+  <si>
+    <t>1229670719</t>
+  </si>
+  <si>
+    <t>627X37292455</t>
+  </si>
+  <si>
+    <t>000000001229670719</t>
+  </si>
+  <si>
+    <t>1229670720</t>
+  </si>
+  <si>
+    <t>627X36636472</t>
+  </si>
+  <si>
+    <t>000000001229670720</t>
+  </si>
+  <si>
+    <t>1229670822</t>
+  </si>
+  <si>
+    <t>620X37549719</t>
+  </si>
+  <si>
+    <t>000000001229670822</t>
+  </si>
+  <si>
+    <t>1229670824</t>
+  </si>
+  <si>
+    <t>627X37136182</t>
+  </si>
+  <si>
+    <t>000000001229670824</t>
+  </si>
+  <si>
+    <t>1229670825</t>
+  </si>
+  <si>
+    <t>627X36141926</t>
+  </si>
+  <si>
+    <t>000000001229670825</t>
+  </si>
+  <si>
+    <t>1229670828</t>
+  </si>
+  <si>
+    <t>627X30319610</t>
+  </si>
+  <si>
+    <t>000000001229670828</t>
+  </si>
+  <si>
+    <t>1229670829</t>
+  </si>
+  <si>
+    <t>627X36141923</t>
+  </si>
+  <si>
+    <t>000000001229670829</t>
+  </si>
+  <si>
+    <t>1229671201</t>
+  </si>
+  <si>
+    <t>627X37268458</t>
+  </si>
+  <si>
+    <t>000000001229671201</t>
+  </si>
+  <si>
+    <t>1229671202</t>
+  </si>
+  <si>
+    <t>627X37102016</t>
+  </si>
+  <si>
+    <t>000000001229671202</t>
+  </si>
+  <si>
+    <t>1229671203</t>
+  </si>
+  <si>
+    <t>627X36428638</t>
+  </si>
+  <si>
+    <t>000000001229671203</t>
+  </si>
+  <si>
+    <t>1229671206</t>
+  </si>
+  <si>
+    <t>627X37446438</t>
+  </si>
+  <si>
+    <t>000000001229671206</t>
+  </si>
+  <si>
+    <t>1229671208</t>
+  </si>
+  <si>
+    <t>627X35755461</t>
+  </si>
+  <si>
+    <t>000000001229671208</t>
+  </si>
+  <si>
+    <t>1229671334</t>
+  </si>
+  <si>
+    <t>M7829084</t>
+  </si>
+  <si>
+    <t>000000001229671334</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HUMAN BIOLOGICAL SUBSTANCE                 CATEGORY B UN3373</t>
+  </si>
+  <si>
+    <t>1229671335</t>
+  </si>
+  <si>
+    <t>M7832987</t>
+  </si>
+  <si>
+    <t>000000001229671335</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HUMAN BIOLOGICAL SUBSTANCE        CATEGORY B UN3373</t>
+  </si>
+  <si>
+    <t>1229671340</t>
+  </si>
+  <si>
+    <t>627X37017353</t>
+  </si>
+  <si>
+    <t>000000001229671340</t>
+  </si>
+  <si>
+    <t>1229671542</t>
+  </si>
+  <si>
+    <t>627X36122979</t>
+  </si>
+  <si>
+    <t>000000001229671542</t>
+  </si>
+  <si>
+    <t>1229671544</t>
+  </si>
+  <si>
+    <t>627X34562819</t>
+  </si>
+  <si>
+    <t>000000001229671544</t>
+  </si>
+  <si>
+    <t>1229671546</t>
+  </si>
+  <si>
+    <t>627X37109600</t>
+  </si>
+  <si>
+    <t>000000001229671546</t>
+  </si>
+  <si>
+    <t>1229671549</t>
+  </si>
+  <si>
+    <t>627X37572442</t>
+  </si>
+  <si>
+    <t>000000001229671549</t>
+  </si>
+  <si>
+    <t>1229671682</t>
+  </si>
+  <si>
+    <t>627X36855189</t>
+  </si>
+  <si>
+    <t>000000001229671682</t>
+  </si>
+  <si>
+    <t>1229671683</t>
+  </si>
+  <si>
+    <t>627X34929884</t>
+  </si>
+  <si>
+    <t>000000001229671683</t>
+  </si>
+  <si>
+    <t>1229671685</t>
+  </si>
+  <si>
+    <t>627X37207296</t>
+  </si>
+  <si>
+    <t>000000001229671685</t>
+  </si>
+  <si>
+    <t>1229671687</t>
+  </si>
+  <si>
+    <t>627X36875337</t>
+  </si>
+  <si>
+    <t>000000001229671687</t>
+  </si>
+  <si>
+    <t>1229671688</t>
+  </si>
+  <si>
+    <t>627X37445123</t>
+  </si>
+  <si>
+    <t>000000001229671688</t>
+  </si>
+  <si>
+    <t>1229671813</t>
+  </si>
+  <si>
+    <t>627X36897231</t>
+  </si>
+  <si>
+    <t>000000001229671813</t>
+  </si>
+  <si>
+    <t>1229671815</t>
+  </si>
+  <si>
+    <t>627X36060400</t>
+  </si>
+  <si>
+    <t>000000001229671815</t>
+  </si>
+  <si>
+    <t>1229671816</t>
+  </si>
+  <si>
+    <t>627X32059922</t>
+  </si>
+  <si>
+    <t>000000001229671816</t>
+  </si>
+  <si>
+    <t>1229672011</t>
+  </si>
+  <si>
+    <t>627X36631336</t>
+  </si>
+  <si>
+    <t>000000001229672011</t>
+  </si>
+  <si>
+    <t>1229672012</t>
+  </si>
+  <si>
+    <t>627X37061995</t>
+  </si>
+  <si>
+    <t>000000001229672012</t>
+  </si>
+  <si>
+    <t>1229672014</t>
+  </si>
+  <si>
+    <t>627X36883398</t>
+  </si>
+  <si>
+    <t>000000001229672014</t>
+  </si>
+  <si>
+    <t>1229672015</t>
+  </si>
+  <si>
+    <t>627X36772515</t>
+  </si>
+  <si>
+    <t>000000001229672015</t>
+  </si>
+  <si>
+    <t>1229672017</t>
+  </si>
+  <si>
+    <t>M7829217</t>
+  </si>
+  <si>
+    <t>000000001229672017</t>
   </si>
   <si>
     <t xml:space="preserve"> HUMAN BIOLOGICAL SUBSTANCE                    CATEGORY B UN337</t>
   </si>
   <si>
-    <t>1229594742</t>
-  </si>
-  <si>
-    <t>627X37188263</t>
-  </si>
-  <si>
-    <t>000000001229594742</t>
-  </si>
-  <si>
-    <t>1229594744</t>
-  </si>
-  <si>
-    <t>627X35945064</t>
-  </si>
-  <si>
-    <t>000000001229594744</t>
-  </si>
-  <si>
-    <t>1229594745</t>
-  </si>
-  <si>
-    <t>627X35923611</t>
-  </si>
-  <si>
-    <t>000000001229594745</t>
-  </si>
-  <si>
-    <t>1229594747</t>
-  </si>
-  <si>
-    <t>M7829083</t>
-  </si>
-  <si>
-    <t>000000001229594747</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HUMAN BIOLOGICAL SUBSTANCE                 CATEGORY B UN3373</t>
-  </si>
-  <si>
-    <t>1229594750</t>
-  </si>
-  <si>
-    <t>M7816039</t>
-  </si>
-  <si>
-    <t>000000001229594750</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HUMAN BIOLOGICAL SUBSTANCE           CATEGORY B UN3373</t>
-  </si>
-  <si>
-    <t>1229594924</t>
-  </si>
-  <si>
-    <t>M7829082</t>
-  </si>
-  <si>
-    <t>000000001229594924</t>
-  </si>
-  <si>
-    <t>1229594926</t>
-  </si>
-  <si>
-    <t>627X37542075</t>
-  </si>
-  <si>
-    <t>000000001229594926</t>
-  </si>
-  <si>
-    <t>1229594929</t>
-  </si>
-  <si>
-    <t>627X34222105</t>
-  </si>
-  <si>
-    <t>000000001229594929</t>
-  </si>
-  <si>
-    <t>1229594982</t>
-  </si>
-  <si>
-    <t>627X36873398</t>
-  </si>
-  <si>
-    <t>000000001229594982</t>
-  </si>
-  <si>
-    <t>1229594983</t>
-  </si>
-  <si>
-    <t>B1648387</t>
-  </si>
-  <si>
-    <t>000000001229594983</t>
-  </si>
-  <si>
-    <t>1229595044</t>
-  </si>
-  <si>
-    <t>M7832989</t>
-  </si>
-  <si>
-    <t>000000001229595044</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HUMAN BIOLOGICAL SUBSTANCE        CATEGORY B UN3373</t>
-  </si>
-  <si>
-    <t>1229595045</t>
-  </si>
-  <si>
-    <t>627X36926845</t>
-  </si>
-  <si>
-    <t>000000001229595045</t>
-  </si>
-  <si>
-    <t>1229595046</t>
-  </si>
-  <si>
-    <t>627X37469551</t>
-  </si>
-  <si>
-    <t>000000001229595046</t>
-  </si>
-  <si>
-    <t>1229595048</t>
-  </si>
-  <si>
-    <t>627X37543137</t>
-  </si>
-  <si>
-    <t>000000001229595048</t>
-  </si>
-  <si>
-    <t>1229595049</t>
-  </si>
-  <si>
-    <t>M7816092</t>
-  </si>
-  <si>
-    <t>000000001229595049</t>
-  </si>
-  <si>
-    <t>1229595191</t>
-  </si>
-  <si>
-    <t>627X37036261</t>
-  </si>
-  <si>
-    <t>000000001229595191</t>
-  </si>
-  <si>
-    <t>1229595193</t>
-  </si>
-  <si>
-    <t>627X37107478</t>
-  </si>
-  <si>
-    <t>000000001229595193</t>
-  </si>
-  <si>
-    <t>1229595195</t>
-  </si>
-  <si>
-    <t>627X36854653</t>
-  </si>
-  <si>
-    <t>000000001229595195</t>
-  </si>
-  <si>
-    <t>1229595197</t>
-  </si>
-  <si>
-    <t>627X36828054</t>
-  </si>
-  <si>
-    <t>000000001229595197</t>
-  </si>
-  <si>
-    <t>1229595198</t>
-  </si>
-  <si>
-    <t>627X36872001</t>
-  </si>
-  <si>
-    <t>000000001229595198</t>
-  </si>
-  <si>
-    <t>1229595200</t>
-  </si>
-  <si>
-    <t>627X36299860</t>
-  </si>
-  <si>
-    <t>000000001229595200</t>
-  </si>
-  <si>
-    <t>1229595432</t>
-  </si>
-  <si>
-    <t>627X36926846</t>
-  </si>
-  <si>
-    <t>000000001229595432</t>
+    <t>1229672019</t>
+  </si>
+  <si>
+    <t>620X36591883</t>
+  </si>
+  <si>
+    <t>000000001229672019</t>
+  </si>
+  <si>
+    <t>1229672020</t>
+  </si>
+  <si>
+    <t>620X36320573</t>
+  </si>
+  <si>
+    <t>000000001229672020</t>
+  </si>
+  <si>
+    <t>1229672132</t>
+  </si>
+  <si>
+    <t>627X37535520</t>
+  </si>
+  <si>
+    <t>000000001229672132</t>
+  </si>
+  <si>
+    <t>1229672133</t>
+  </si>
+  <si>
+    <t>627X37535521</t>
+  </si>
+  <si>
+    <t>000000001229672133</t>
+  </si>
+  <si>
+    <t>1229672139</t>
+  </si>
+  <si>
+    <t>627X37421230</t>
+  </si>
+  <si>
+    <t>000000001229672139</t>
+  </si>
+  <si>
+    <t>1229672281</t>
+  </si>
+  <si>
+    <t>627X36059817</t>
+  </si>
+  <si>
+    <t>000000001229672281</t>
+  </si>
+  <si>
+    <t>1229672283</t>
+  </si>
+  <si>
+    <t>627X37209397</t>
+  </si>
+  <si>
+    <t>000000001229672283</t>
+  </si>
+  <si>
+    <t>1229672284</t>
+  </si>
+  <si>
+    <t>627X34929885</t>
+  </si>
+  <si>
+    <t>000000001229672284</t>
+  </si>
+  <si>
+    <t>1229672285</t>
+  </si>
+  <si>
+    <t>627X37136183</t>
+  </si>
+  <si>
+    <t>000000001229672285</t>
+  </si>
+  <si>
+    <t>1229672286</t>
+  </si>
+  <si>
+    <t>627X35216546</t>
+  </si>
+  <si>
+    <t>000000001229672286</t>
+  </si>
+  <si>
+    <t>1229672288</t>
+  </si>
+  <si>
+    <t>627X36538830</t>
+  </si>
+  <si>
+    <t>000000001229672288</t>
+  </si>
+  <si>
+    <t>1229672289</t>
+  </si>
+  <si>
+    <t>627X36947577</t>
+  </si>
+  <si>
+    <t>000000001229672289</t>
+  </si>
+  <si>
+    <t>1229672402</t>
+  </si>
+  <si>
+    <t>M7832988</t>
+  </si>
+  <si>
+    <t>000000001229672402</t>
+  </si>
+  <si>
+    <t>1229672403</t>
+  </si>
+  <si>
+    <t>627X37207297</t>
+  </si>
+  <si>
+    <t>000000001229672403</t>
+  </si>
+  <si>
+    <t>1229672405</t>
+  </si>
+  <si>
+    <t>627X36900964</t>
+  </si>
+  <si>
+    <t>000000001229672405</t>
   </si>
   <si>
     <t>BIO SPX REFRIGERATED -DOMESTIC-  2ºC/8ºC</t>
   </si>
   <si>
-    <t>1229595433</t>
-  </si>
-  <si>
-    <t>627X36256643</t>
-  </si>
-  <si>
-    <t>000000001229595433</t>
-  </si>
-  <si>
-    <t>1229595435</t>
-  </si>
-  <si>
-    <t>627X37535517</t>
-  </si>
-  <si>
-    <t>000000001229595435</t>
-  </si>
-  <si>
-    <t>1229595437</t>
-  </si>
-  <si>
-    <t>627X37416553</t>
-  </si>
-  <si>
-    <t>000000001229595437</t>
-  </si>
-  <si>
-    <t>1229595440</t>
-  </si>
-  <si>
-    <t>627X37188265</t>
-  </si>
-  <si>
-    <t>000000001229595440</t>
-  </si>
-  <si>
-    <t>1229595543</t>
-  </si>
-  <si>
-    <t>627X35337429</t>
-  </si>
-  <si>
-    <t>000000001229595543</t>
-  </si>
-  <si>
-    <t>1229595545</t>
-  </si>
-  <si>
-    <t>627X36977892</t>
-  </si>
-  <si>
-    <t>000000001229595545</t>
-  </si>
-  <si>
-    <t>1229595546</t>
-  </si>
-  <si>
-    <t>627X36900961</t>
-  </si>
-  <si>
-    <t>000000001229595546</t>
-  </si>
-  <si>
-    <t>1229595550</t>
-  </si>
-  <si>
-    <t>627X36875528</t>
-  </si>
-  <si>
-    <t>000000001229595550</t>
-  </si>
-  <si>
-    <t>1229595662</t>
-  </si>
-  <si>
-    <t>627X37423053</t>
-  </si>
-  <si>
-    <t>000000001229595662</t>
-  </si>
-  <si>
-    <t>1229595664</t>
-  </si>
-  <si>
-    <t>627X36831266</t>
-  </si>
-  <si>
-    <t>000000001229595664</t>
-  </si>
-  <si>
-    <t>1229595665</t>
-  </si>
-  <si>
-    <t>627X37421228</t>
-  </si>
-  <si>
-    <t>000000001229595665</t>
-  </si>
-  <si>
-    <t>1229595667</t>
-  </si>
-  <si>
-    <t>627X37188264</t>
-  </si>
-  <si>
-    <t>000000001229595667</t>
-  </si>
-  <si>
-    <t>1229595668</t>
-  </si>
-  <si>
-    <t>627X36506683</t>
-  </si>
-  <si>
-    <t>000000001229595668</t>
-  </si>
-  <si>
-    <t>1229595670</t>
-  </si>
-  <si>
-    <t>627X37038864</t>
-  </si>
-  <si>
-    <t>000000001229595670</t>
-  </si>
-  <si>
-    <t>1229595991</t>
-  </si>
-  <si>
-    <t>627X35945065</t>
-  </si>
-  <si>
-    <t>000000001229595991</t>
-  </si>
-  <si>
-    <t>1229595993</t>
-  </si>
-  <si>
-    <t>627X37292764</t>
-  </si>
-  <si>
-    <t>000000001229595993</t>
-  </si>
-  <si>
-    <t>1229595996</t>
-  </si>
-  <si>
-    <t>627X34222106</t>
-  </si>
-  <si>
-    <t>000000001229595996</t>
-  </si>
-  <si>
-    <t>1229595998</t>
-  </si>
-  <si>
-    <t>B1648388</t>
-  </si>
-  <si>
-    <t>000000001229595998</t>
-  </si>
-  <si>
-    <t>1229596000</t>
-  </si>
-  <si>
-    <t>627X37535518</t>
-  </si>
-  <si>
-    <t>000000001229596000</t>
-  </si>
-  <si>
-    <t>1229596114</t>
-  </si>
-  <si>
-    <t>627X35923612</t>
-  </si>
-  <si>
-    <t>000000001229596114</t>
-  </si>
-  <si>
-    <t>1229596115</t>
-  </si>
-  <si>
-    <t>627X37061994</t>
-  </si>
-  <si>
-    <t>000000001229596115</t>
-  </si>
-  <si>
-    <t>1229596117</t>
-  </si>
-  <si>
-    <t>627X37292846</t>
-  </si>
-  <si>
-    <t>000000001229596117</t>
-  </si>
-  <si>
-    <t>1229596119</t>
-  </si>
-  <si>
-    <t>627X37562307</t>
-  </si>
-  <si>
-    <t>000000001229596119</t>
-  </si>
-  <si>
-    <t>1229596271</t>
-  </si>
-  <si>
-    <t>627X35947944</t>
-  </si>
-  <si>
-    <t>000000001229596271</t>
-  </si>
-  <si>
-    <t>1229596272</t>
-  </si>
-  <si>
-    <t>M7829161</t>
-  </si>
-  <si>
-    <t>000000001229596272</t>
-  </si>
-  <si>
-    <t>1229596274</t>
-  </si>
-  <si>
-    <t>627X37107477</t>
-  </si>
-  <si>
-    <t>000000001229596274</t>
-  </si>
-  <si>
-    <t>1229596275</t>
-  </si>
-  <si>
-    <t>627X37017439</t>
-  </si>
-  <si>
-    <t>000000001229596275</t>
-  </si>
-  <si>
-    <t>1229596277</t>
-  </si>
-  <si>
-    <t>627X33763312</t>
-  </si>
-  <si>
-    <t>000000001229596277</t>
-  </si>
-  <si>
-    <t>1229596279</t>
-  </si>
-  <si>
-    <t>627X35066850</t>
-  </si>
-  <si>
-    <t>000000001229596279</t>
-  </si>
-  <si>
-    <t>1229596471</t>
-  </si>
-  <si>
-    <t>627X37362103</t>
-  </si>
-  <si>
-    <t>000000001229596471</t>
-  </si>
-  <si>
-    <t>1229596473</t>
-  </si>
-  <si>
-    <t>627X37542076</t>
-  </si>
-  <si>
-    <t>000000001229596473</t>
-  </si>
-  <si>
-    <t>1229596475</t>
-  </si>
-  <si>
-    <t>627X36873399</t>
-  </si>
-  <si>
-    <t>000000001229596475</t>
-  </si>
-  <si>
-    <t>1229596477</t>
-  </si>
-  <si>
-    <t>627X37337693</t>
-  </si>
-  <si>
-    <t>000000001229596477</t>
-  </si>
-  <si>
-    <t>1229596478</t>
-  </si>
-  <si>
-    <t>627X37107476</t>
-  </si>
-  <si>
-    <t>000000001229596478</t>
-  </si>
-  <si>
-    <t>1229596480</t>
-  </si>
-  <si>
-    <t>627X37109599</t>
-  </si>
-  <si>
-    <t>000000001229596480</t>
-  </si>
-  <si>
-    <t>1229596591</t>
-  </si>
-  <si>
-    <t>627X37536574</t>
-  </si>
-  <si>
-    <t>000000001229596591</t>
-  </si>
-  <si>
-    <t>1229596592</t>
-  </si>
-  <si>
-    <t>627X37422065</t>
-  </si>
-  <si>
-    <t>000000001229596592</t>
-  </si>
-  <si>
-    <t>1229601267</t>
-  </si>
-  <si>
-    <t>627X36529168</t>
-  </si>
-  <si>
-    <t>000000001229601267</t>
-  </si>
-  <si>
-    <t>1229601269</t>
-  </si>
-  <si>
-    <t>627X36705978</t>
-  </si>
-  <si>
-    <t>000000001229601269</t>
-  </si>
-  <si>
-    <t>1229601581</t>
-  </si>
-  <si>
-    <t>627X36705976</t>
-  </si>
-  <si>
-    <t>000000001229601581</t>
-  </si>
-  <si>
-    <t>1229601582</t>
-  </si>
-  <si>
-    <t>627X36705974</t>
-  </si>
-  <si>
-    <t>000000001229601582</t>
-  </si>
-  <si>
-    <t>1229601584</t>
-  </si>
-  <si>
-    <t>627X36705980</t>
-  </si>
-  <si>
-    <t>000000001229601584</t>
-  </si>
-  <si>
-    <t>1229601585</t>
-  </si>
-  <si>
-    <t>627X37570511</t>
-  </si>
-  <si>
-    <t>000000001229601585</t>
-  </si>
-  <si>
-    <t>1229601588</t>
-  </si>
-  <si>
-    <t>627X36508338</t>
-  </si>
-  <si>
-    <t>000000001229601588</t>
-  </si>
-  <si>
-    <t>1229601590</t>
-  </si>
-  <si>
-    <t>627X36832638</t>
-  </si>
-  <si>
-    <t>000000001229601590</t>
-  </si>
-  <si>
-    <t>1229601751</t>
-  </si>
-  <si>
-    <t>627X35597407</t>
-  </si>
-  <si>
-    <t>000000001229601751</t>
-  </si>
-  <si>
-    <t>1229601753</t>
-  </si>
-  <si>
-    <t>627X36100619</t>
-  </si>
-  <si>
-    <t>000000001229601753</t>
-  </si>
-  <si>
-    <t>1229601757</t>
-  </si>
-  <si>
-    <t>627X36705977</t>
-  </si>
-  <si>
-    <t>000000001229601757</t>
-  </si>
-  <si>
-    <t>1229601760</t>
-  </si>
-  <si>
-    <t>627X36705979</t>
-  </si>
-  <si>
-    <t>000000001229601760</t>
-  </si>
-  <si>
-    <t>1229601822</t>
-  </si>
-  <si>
-    <t>627X35597408</t>
-  </si>
-  <si>
-    <t>000000001229601822</t>
-  </si>
-  <si>
-    <t>1229601824</t>
-  </si>
-  <si>
-    <t>627X36705975</t>
-  </si>
-  <si>
-    <t>000000001229601824</t>
-  </si>
-  <si>
-    <t>1229601827</t>
-  </si>
-  <si>
-    <t>627X36529169</t>
-  </si>
-  <si>
-    <t>000000001229601827</t>
-  </si>
-  <si>
-    <t>1229601829</t>
-  </si>
-  <si>
-    <t>627X36100620</t>
-  </si>
-  <si>
-    <t>000000001229601829</t>
-  </si>
-  <si>
-    <t>1229601830</t>
-  </si>
-  <si>
-    <t>627X36508339</t>
-  </si>
-  <si>
-    <t>000000001229601830</t>
-  </si>
-  <si>
-    <t>1229601961</t>
-  </si>
-  <si>
-    <t>627X37570512</t>
-  </si>
-  <si>
-    <t>000000001229601961</t>
-  </si>
-  <si>
-    <t>1229601965</t>
-  </si>
-  <si>
-    <t>627X36832639</t>
-  </si>
-  <si>
-    <t>000000001229601965</t>
-  </si>
-  <si>
-    <t>1229603066</t>
-  </si>
-  <si>
-    <t>627X37210422</t>
-  </si>
-  <si>
-    <t>000000001229603066</t>
-  </si>
-  <si>
-    <t>1229603100</t>
-  </si>
-  <si>
-    <t>627X36171113</t>
-  </si>
-  <si>
-    <t>000000001229603100</t>
-  </si>
-  <si>
-    <t>1229603119</t>
-  </si>
-  <si>
-    <t>627X36419932</t>
-  </si>
-  <si>
-    <t>000000001229603119</t>
+    <t>1229672407</t>
+  </si>
+  <si>
+    <t>627X33683318</t>
+  </si>
+  <si>
+    <t>000000001229672407</t>
+  </si>
+  <si>
+    <t>1229672531</t>
+  </si>
+  <si>
+    <t>627X36900097</t>
+  </si>
+  <si>
+    <t>000000001229672531</t>
+  </si>
+  <si>
+    <t>1229672532</t>
+  </si>
+  <si>
+    <t>627X37469553</t>
+  </si>
+  <si>
+    <t>000000001229672532</t>
+  </si>
+  <si>
+    <t>1229672533</t>
+  </si>
+  <si>
+    <t>627X36772516</t>
+  </si>
+  <si>
+    <t>000000001229672533</t>
+  </si>
+  <si>
+    <t>1229672534</t>
+  </si>
+  <si>
+    <t>627X31114245</t>
+  </si>
+  <si>
+    <t>000000001229672534</t>
+  </si>
+  <si>
+    <t>1229672535</t>
+  </si>
+  <si>
+    <t>627X35233024</t>
+  </si>
+  <si>
+    <t>000000001229672535</t>
+  </si>
+  <si>
+    <t>1229672537</t>
+  </si>
+  <si>
+    <t>627X36900963</t>
+  </si>
+  <si>
+    <t>000000001229672537</t>
+  </si>
+  <si>
+    <t>1229672538</t>
+  </si>
+  <si>
+    <t>627X37446439</t>
+  </si>
+  <si>
+    <t>000000001229672538</t>
+  </si>
+  <si>
+    <t>1229672540</t>
+  </si>
+  <si>
+    <t>627X36075160</t>
+  </si>
+  <si>
+    <t>000000001229672540</t>
+  </si>
+  <si>
+    <t>1229673022</t>
+  </si>
+  <si>
+    <t>627X37572443</t>
+  </si>
+  <si>
+    <t>000000001229673022</t>
+  </si>
+  <si>
+    <t>1229673024</t>
+  </si>
+  <si>
+    <t>627X34202166</t>
+  </si>
+  <si>
+    <t>000000001229673024</t>
+  </si>
+  <si>
+    <t>1229673025</t>
+  </si>
+  <si>
+    <t>627X37535391</t>
+  </si>
+  <si>
+    <t>000000001229673025</t>
+  </si>
+  <si>
+    <t>1229673026</t>
+  </si>
+  <si>
+    <t>627X31114246</t>
+  </si>
+  <si>
+    <t>000000001229673026</t>
+  </si>
+  <si>
+    <t>1229673028</t>
+  </si>
+  <si>
+    <t>627X36875338</t>
+  </si>
+  <si>
+    <t>000000001229673028</t>
+  </si>
+  <si>
+    <t>1229673029</t>
+  </si>
+  <si>
+    <t>627X37066402</t>
+  </si>
+  <si>
+    <t>000000001229673029</t>
+  </si>
+  <si>
+    <t>1229673351</t>
+  </si>
+  <si>
+    <t>627X36507221</t>
+  </si>
+  <si>
+    <t>000000001229673351</t>
+  </si>
+  <si>
+    <t>1229673352</t>
+  </si>
+  <si>
+    <t>627X36855188</t>
+  </si>
+  <si>
+    <t>000000001229673352</t>
+  </si>
+  <si>
+    <t>1229673354</t>
+  </si>
+  <si>
+    <t>627X37294049</t>
+  </si>
+  <si>
+    <t>000000001229673354</t>
+  </si>
+  <si>
+    <t>1229673356</t>
+  </si>
+  <si>
+    <t>627X36636473</t>
+  </si>
+  <si>
+    <t>000000001229673356</t>
+  </si>
+  <si>
+    <t>1229673357</t>
+  </si>
+  <si>
+    <t>627X37569423</t>
+  </si>
+  <si>
+    <t>000000001229673357</t>
+  </si>
+  <si>
+    <t>1229673359</t>
+  </si>
+  <si>
+    <t>627X37466931</t>
+  </si>
+  <si>
+    <t>000000001229673359</t>
+  </si>
+  <si>
+    <t>1229673701</t>
+  </si>
+  <si>
+    <t>627X34562820</t>
+  </si>
+  <si>
+    <t>000000001229673701</t>
+  </si>
+  <si>
+    <t>1229673702</t>
+  </si>
+  <si>
+    <t>627X37445124</t>
+  </si>
+  <si>
+    <t>000000001229673702</t>
+  </si>
+  <si>
+    <t>1229673704</t>
+  </si>
+  <si>
+    <t>627X37017441</t>
+  </si>
+  <si>
+    <t>000000001229673704</t>
+  </si>
+  <si>
+    <t>1229673706</t>
+  </si>
+  <si>
+    <t>627X36883397</t>
+  </si>
+  <si>
+    <t>000000001229673706</t>
+  </si>
+  <si>
+    <t>1229673708</t>
+  </si>
+  <si>
+    <t>627X37109601</t>
+  </si>
+  <si>
+    <t>000000001229673708</t>
+  </si>
+  <si>
+    <t>1229673709</t>
+  </si>
+  <si>
+    <t>627X35597410</t>
+  </si>
+  <si>
+    <t>000000001229673709</t>
+  </si>
+  <si>
+    <t>1229674001</t>
+  </si>
+  <si>
+    <t>627X36141928</t>
+  </si>
+  <si>
+    <t>000000001229674001</t>
+  </si>
+  <si>
+    <t>1229674003</t>
+  </si>
+  <si>
+    <t>627X36141924</t>
+  </si>
+  <si>
+    <t>000000001229674003</t>
+  </si>
+  <si>
+    <t>1229674004</t>
+  </si>
+  <si>
+    <t>627X37562296</t>
+  </si>
+  <si>
+    <t>000000001229674004</t>
+  </si>
+  <si>
+    <t>1229674005</t>
+  </si>
+  <si>
+    <t>627X36141927</t>
+  </si>
+  <si>
+    <t>000000001229674005</t>
+  </si>
+  <si>
+    <t>1229674006</t>
+  </si>
+  <si>
+    <t>627X36141925</t>
+  </si>
+  <si>
+    <t>000000001229674006</t>
+  </si>
+  <si>
+    <t>1229681524</t>
+  </si>
+  <si>
+    <t>627X36418325</t>
+  </si>
+  <si>
+    <t>000000001229681524</t>
+  </si>
+  <si>
+    <t>1229681525</t>
+  </si>
+  <si>
+    <t>627X37210424</t>
+  </si>
+  <si>
+    <t>000000001229681525</t>
+  </si>
+  <si>
+    <t>1229681526</t>
+  </si>
+  <si>
+    <t>627X36705972</t>
+  </si>
+  <si>
+    <t>000000001229681526</t>
+  </si>
+  <si>
+    <t>1229681527</t>
+  </si>
+  <si>
+    <t>627X33700282</t>
+  </si>
+  <si>
+    <t>000000001229681527</t>
+  </si>
+  <si>
+    <t>1229681528</t>
+  </si>
+  <si>
+    <t>627X37017798</t>
+  </si>
+  <si>
+    <t>000000001229681528</t>
+  </si>
+  <si>
+    <t>1229681529</t>
+  </si>
+  <si>
+    <t>627X37210423</t>
+  </si>
+  <si>
+    <t>000000001229681529</t>
+  </si>
+  <si>
+    <t>1229681530</t>
+  </si>
+  <si>
+    <t>627X37017799</t>
+  </si>
+  <si>
+    <t>000000001229681530</t>
+  </si>
+  <si>
+    <t>1229682411</t>
+  </si>
+  <si>
+    <t>627X33700283</t>
+  </si>
+  <si>
+    <t>000000001229682411</t>
+  </si>
+  <si>
+    <t>1229682412</t>
+  </si>
+  <si>
+    <t>627X35755462</t>
+  </si>
+  <si>
+    <t>000000001229682412</t>
   </si>
 </sst>
 </file>
@@ -2361,8 +2256,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1523DB1B-3929-4323-8BE7-E442B1311D3C}">
-  <dimension ref="A1:AX132"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2E2D9EA-F37A-414B-9097-34960B2E0D1E}">
+  <dimension ref="A1:AX121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2796,11 +2691,9 @@
         <v>51</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>53</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
         <v>54</v>
       </c>
@@ -2821,7 +2714,7 @@
         <v>58</v>
       </c>
       <c r="N4" s="3">
-        <v>0.03</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="O4" s="3">
         <v>3.5</v>
@@ -2831,7 +2724,7 @@
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="4">
@@ -2839,28 +2732,28 @@
       </c>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
-      <c r="W4" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="W4" s="1"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="AF4" s="1"/>
       <c r="AG4" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AH4" s="1"/>
+      <c r="AH4" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="AI4" s="1" t="s">
         <v>66</v>
       </c>
@@ -2869,7 +2762,7 @@
       </c>
       <c r="AK4" s="1"/>
       <c r="AL4" s="1" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="AM4" s="1" t="s">
         <v>69</v>
@@ -2884,7 +2777,7 @@
         <v>72</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="AR4" s="1"/>
       <c r="AS4" s="1" t="s">
@@ -2898,17 +2791,15 @@
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>53</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
         <v>54</v>
       </c>
@@ -2929,46 +2820,48 @@
         <v>58</v>
       </c>
       <c r="N5" s="3">
-        <v>0.03</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="O5" s="3">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>59</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="S5" s="1"/>
       <c r="T5" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="X5" s="1"/>
       <c r="Y5" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="AF5" s="1"/>
       <c r="AG5" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AH5" s="1"/>
+      <c r="AH5" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="AI5" s="1" t="s">
         <v>66</v>
       </c>
@@ -2977,7 +2870,7 @@
       </c>
       <c r="AK5" s="1"/>
       <c r="AL5" s="1" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="AM5" s="1" t="s">
         <v>69</v>
@@ -2986,13 +2879,13 @@
         <v>70</v>
       </c>
       <c r="AO5" s="1" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="AP5" s="1" t="s">
         <v>72</v>
       </c>
       <c r="AQ5" s="1" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AR5" s="1"/>
       <c r="AS5" s="1" t="s">
@@ -3006,17 +2899,15 @@
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>53</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
         <v>54</v>
       </c>
@@ -3037,46 +2928,48 @@
         <v>58</v>
       </c>
       <c r="N6" s="3">
-        <v>0.03</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="O6" s="3">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>59</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="S6" s="1"/>
       <c r="T6" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="X6" s="1"/>
       <c r="Y6" s="1" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="AF6" s="1"/>
       <c r="AG6" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AH6" s="1"/>
+      <c r="AH6" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="AI6" s="1" t="s">
         <v>66</v>
       </c>
@@ -3085,7 +2978,7 @@
       </c>
       <c r="AK6" s="1"/>
       <c r="AL6" s="1" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="AM6" s="1" t="s">
         <v>69</v>
@@ -3094,13 +2987,13 @@
         <v>70</v>
       </c>
       <c r="AO6" s="1" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="AP6" s="1" t="s">
         <v>72</v>
       </c>
       <c r="AQ6" s="1" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="AR6" s="1"/>
       <c r="AS6" s="1" t="s">
@@ -3114,13 +3007,13 @@
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
@@ -3143,17 +3036,17 @@
         <v>58</v>
       </c>
       <c r="N7" s="3">
-        <v>4.8000000000000001E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="O7" s="3">
-        <v>3.5</v>
+        <v>0.2</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>59</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="S7" s="1"/>
       <c r="T7" s="4">
@@ -3164,25 +3057,23 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="1" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="AF7" s="1"/>
       <c r="AG7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AH7" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="AH7" s="1"/>
       <c r="AI7" s="1" t="s">
         <v>66</v>
       </c>
@@ -3191,7 +3082,7 @@
       </c>
       <c r="AK7" s="1"/>
       <c r="AL7" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="AM7" s="1" t="s">
         <v>69</v>
@@ -3200,13 +3091,13 @@
         <v>70</v>
       </c>
       <c r="AO7" s="1" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="AP7" s="1" t="s">
         <v>72</v>
       </c>
       <c r="AQ7" s="1" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="AR7" s="1"/>
       <c r="AS7" s="1" t="s">
@@ -3220,13 +3111,13 @@
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
@@ -3249,48 +3140,44 @@
         <v>58</v>
       </c>
       <c r="N8" s="3">
-        <v>7.0000000000000001E-3</v>
+        <v>0.03</v>
       </c>
       <c r="O8" s="3">
-        <v>0.7</v>
+        <v>6</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>59</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
-      <c r="W8" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="W8" s="1"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="AF8" s="1"/>
       <c r="AG8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AH8" s="1" t="s">
-        <v>102</v>
-      </c>
+      <c r="AH8" s="1"/>
       <c r="AI8" s="1" t="s">
         <v>66</v>
       </c>
@@ -3299,7 +3186,7 @@
       </c>
       <c r="AK8" s="1"/>
       <c r="AL8" s="1" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="AM8" s="1" t="s">
         <v>69</v>
@@ -3308,13 +3195,13 @@
         <v>70</v>
       </c>
       <c r="AO8" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="AP8" s="1" t="s">
         <v>72</v>
       </c>
       <c r="AQ8" s="1" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="AR8" s="1"/>
       <c r="AS8" s="1" t="s">
@@ -3328,13 +3215,13 @@
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
@@ -3378,13 +3265,13 @@
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AD9" s="1"/>
       <c r="AE9" s="1" t="s">
@@ -3412,7 +3299,7 @@
         <v>70</v>
       </c>
       <c r="AO9" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="AP9" s="1" t="s">
         <v>72</v>
@@ -3432,13 +3319,13 @@
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
@@ -3461,10 +3348,10 @@
         <v>58</v>
       </c>
       <c r="N10" s="3">
-        <v>0.03</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="O10" s="3">
-        <v>6</v>
+        <v>0.2</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>59</v>
@@ -3482,17 +3369,17 @@
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AF10" s="1"/>
       <c r="AG10" s="1" t="s">
@@ -3507,7 +3394,7 @@
       </c>
       <c r="AK10" s="1"/>
       <c r="AL10" s="1" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="AM10" s="1" t="s">
         <v>69</v>
@@ -3516,13 +3403,13 @@
         <v>70</v>
       </c>
       <c r="AO10" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="AP10" s="1" t="s">
         <v>72</v>
       </c>
       <c r="AQ10" s="1" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="AR10" s="1"/>
       <c r="AS10" s="1" t="s">
@@ -3536,13 +3423,13 @@
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
@@ -3586,13 +3473,13 @@
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1" t="s">
@@ -3620,7 +3507,7 @@
         <v>70</v>
       </c>
       <c r="AO11" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="AP11" s="1" t="s">
         <v>72</v>
@@ -3640,13 +3527,13 @@
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
@@ -3669,10 +3556,10 @@
         <v>58</v>
       </c>
       <c r="N12" s="3">
-        <v>0.03</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="O12" s="3">
-        <v>6</v>
+        <v>0.2</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>59</v>
@@ -3690,17 +3577,17 @@
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AF12" s="1"/>
       <c r="AG12" s="1" t="s">
@@ -3715,7 +3602,7 @@
       </c>
       <c r="AK12" s="1"/>
       <c r="AL12" s="1" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="AM12" s="1" t="s">
         <v>69</v>
@@ -3724,13 +3611,13 @@
         <v>70</v>
       </c>
       <c r="AO12" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="AP12" s="1" t="s">
         <v>72</v>
       </c>
       <c r="AQ12" s="1" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="AR12" s="1"/>
       <c r="AS12" s="1" t="s">
@@ -3744,13 +3631,13 @@
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
@@ -3794,13 +3681,13 @@
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1" t="s">
@@ -3828,7 +3715,7 @@
         <v>70</v>
       </c>
       <c r="AO13" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="AP13" s="1" t="s">
         <v>72</v>
@@ -3848,13 +3735,13 @@
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
@@ -3880,7 +3767,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="O14" s="3">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>59</v>
@@ -3898,17 +3785,17 @@
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AF14" s="1"/>
       <c r="AG14" s="1" t="s">
@@ -3923,7 +3810,7 @@
       </c>
       <c r="AK14" s="1"/>
       <c r="AL14" s="1" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="AM14" s="1" t="s">
         <v>69</v>
@@ -3932,13 +3819,13 @@
         <v>70</v>
       </c>
       <c r="AO14" s="1" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="AP14" s="1" t="s">
         <v>72</v>
       </c>
       <c r="AQ14" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="AR14" s="1"/>
       <c r="AS14" s="1" t="s">
@@ -3952,13 +3839,13 @@
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>128</v>
+        <v>51</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
@@ -3984,7 +3871,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="O15" s="3">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>59</v>
@@ -4002,17 +3889,17 @@
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AF15" s="1"/>
       <c r="AG15" s="1" t="s">
@@ -4027,7 +3914,7 @@
       </c>
       <c r="AK15" s="1"/>
       <c r="AL15" s="1" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="AM15" s="1" t="s">
         <v>69</v>
@@ -4036,13 +3923,13 @@
         <v>70</v>
       </c>
       <c r="AO15" s="1" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="AP15" s="1" t="s">
         <v>72</v>
       </c>
       <c r="AQ15" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="AR15" s="1"/>
       <c r="AS15" s="1" t="s">
@@ -4056,13 +3943,13 @@
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
@@ -4088,7 +3975,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="O16" s="3">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>59</v>
@@ -4106,17 +3993,17 @@
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AF16" s="1"/>
       <c r="AG16" s="1" t="s">
@@ -4131,7 +4018,7 @@
       </c>
       <c r="AK16" s="1"/>
       <c r="AL16" s="1" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="AM16" s="1" t="s">
         <v>69</v>
@@ -4140,13 +4027,13 @@
         <v>70</v>
       </c>
       <c r="AO16" s="1" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="AP16" s="1" t="s">
         <v>72</v>
       </c>
       <c r="AQ16" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="AR16" s="1"/>
       <c r="AS16" s="1" t="s">
@@ -4160,13 +4047,13 @@
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
@@ -4220,7 +4107,7 @@
       </c>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AF17" s="1"/>
       <c r="AG17" s="1" t="s">
@@ -4235,7 +4122,7 @@
       </c>
       <c r="AK17" s="1"/>
       <c r="AL17" s="1" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="AM17" s="1" t="s">
         <v>69</v>
@@ -4250,7 +4137,7 @@
         <v>72</v>
       </c>
       <c r="AQ17" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="AR17" s="1"/>
       <c r="AS17" s="1" t="s">
@@ -4270,7 +4157,7 @@
         <v>51</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
@@ -4324,7 +4211,7 @@
       </c>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AF18" s="1"/>
       <c r="AG18" s="1" t="s">
@@ -4339,11 +4226,9 @@
       </c>
       <c r="AK18" s="1"/>
       <c r="AL18" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AM18" s="1" t="s">
-        <v>69</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="AM18" s="1"/>
       <c r="AN18" s="1" t="s">
         <v>70</v>
       </c>
@@ -4354,7 +4239,7 @@
         <v>72</v>
       </c>
       <c r="AQ18" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="AR18" s="1"/>
       <c r="AS18" s="1" t="s">
@@ -4374,7 +4259,7 @@
         <v>51</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
@@ -4428,7 +4313,7 @@
       </c>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AF19" s="1"/>
       <c r="AG19" s="1" t="s">
@@ -4443,7 +4328,7 @@
       </c>
       <c r="AK19" s="1"/>
       <c r="AL19" s="1" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="AM19" s="1" t="s">
         <v>69</v>
@@ -4458,7 +4343,7 @@
         <v>72</v>
       </c>
       <c r="AQ19" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="AR19" s="1"/>
       <c r="AS19" s="1" t="s">
@@ -4478,7 +4363,7 @@
         <v>51</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
@@ -4532,7 +4417,7 @@
       </c>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AF20" s="1"/>
       <c r="AG20" s="1" t="s">
@@ -4547,7 +4432,7 @@
       </c>
       <c r="AK20" s="1"/>
       <c r="AL20" s="1" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="AM20" s="1" t="s">
         <v>69</v>
@@ -4562,7 +4447,7 @@
         <v>72</v>
       </c>
       <c r="AQ20" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="AR20" s="1"/>
       <c r="AS20" s="1" t="s">
@@ -4582,7 +4467,7 @@
         <v>51</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
@@ -4636,7 +4521,7 @@
       </c>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AF21" s="1"/>
       <c r="AG21" s="1" t="s">
@@ -4651,7 +4536,7 @@
       </c>
       <c r="AK21" s="1"/>
       <c r="AL21" s="1" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="AM21" s="1" t="s">
         <v>69</v>
@@ -4666,7 +4551,7 @@
         <v>72</v>
       </c>
       <c r="AQ21" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="AR21" s="1"/>
       <c r="AS21" s="1" t="s">
@@ -4686,7 +4571,7 @@
         <v>51</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
@@ -4740,7 +4625,7 @@
       </c>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AF22" s="1"/>
       <c r="AG22" s="1" t="s">
@@ -4755,7 +4640,7 @@
       </c>
       <c r="AK22" s="1"/>
       <c r="AL22" s="1" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="AM22" s="1" t="s">
         <v>69</v>
@@ -4770,7 +4655,7 @@
         <v>72</v>
       </c>
       <c r="AQ22" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="AR22" s="1"/>
       <c r="AS22" s="1" t="s">
@@ -4790,7 +4675,7 @@
         <v>51</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
@@ -4844,7 +4729,7 @@
       </c>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AF23" s="1"/>
       <c r="AG23" s="1" t="s">
@@ -4859,7 +4744,7 @@
       </c>
       <c r="AK23" s="1"/>
       <c r="AL23" s="1" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="AM23" s="1" t="s">
         <v>69</v>
@@ -4874,7 +4759,7 @@
         <v>72</v>
       </c>
       <c r="AQ23" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="AR23" s="1"/>
       <c r="AS23" s="1" t="s">
@@ -4894,7 +4779,7 @@
         <v>51</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
@@ -4948,7 +4833,7 @@
       </c>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AF24" s="1"/>
       <c r="AG24" s="1" t="s">
@@ -4963,7 +4848,7 @@
       </c>
       <c r="AK24" s="1"/>
       <c r="AL24" s="1" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="AM24" s="1" t="s">
         <v>69</v>
@@ -4978,7 +4863,7 @@
         <v>72</v>
       </c>
       <c r="AQ24" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="AR24" s="1"/>
       <c r="AS24" s="1" t="s">
@@ -4998,7 +4883,7 @@
         <v>51</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
@@ -5052,7 +4937,7 @@
       </c>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AF25" s="1"/>
       <c r="AG25" s="1" t="s">
@@ -5067,7 +4952,7 @@
       </c>
       <c r="AK25" s="1"/>
       <c r="AL25" s="1" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="AM25" s="1" t="s">
         <v>69</v>
@@ -5082,7 +4967,7 @@
         <v>72</v>
       </c>
       <c r="AQ25" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="AR25" s="1"/>
       <c r="AS25" s="1" t="s">
@@ -5102,7 +4987,7 @@
         <v>51</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
@@ -5156,7 +5041,7 @@
       </c>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AF26" s="1"/>
       <c r="AG26" s="1" t="s">
@@ -5171,9 +5056,11 @@
       </c>
       <c r="AK26" s="1"/>
       <c r="AL26" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AM26" s="1"/>
+        <v>104</v>
+      </c>
+      <c r="AM26" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="AN26" s="1" t="s">
         <v>70</v>
       </c>
@@ -5184,7 +5071,7 @@
         <v>72</v>
       </c>
       <c r="AQ26" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="AR26" s="1"/>
       <c r="AS26" s="1" t="s">
@@ -5204,7 +5091,7 @@
         <v>51</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
@@ -5258,7 +5145,7 @@
       </c>
       <c r="AD27" s="1"/>
       <c r="AE27" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AF27" s="1"/>
       <c r="AG27" s="1" t="s">
@@ -5273,9 +5160,11 @@
       </c>
       <c r="AK27" s="1"/>
       <c r="AL27" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AM27" s="1"/>
+        <v>104</v>
+      </c>
+      <c r="AM27" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="AN27" s="1" t="s">
         <v>70</v>
       </c>
@@ -5286,7 +5175,7 @@
         <v>72</v>
       </c>
       <c r="AQ27" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="AR27" s="1"/>
       <c r="AS27" s="1" t="s">
@@ -5306,7 +5195,7 @@
         <v>51</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
@@ -5360,7 +5249,7 @@
       </c>
       <c r="AD28" s="1"/>
       <c r="AE28" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AF28" s="1"/>
       <c r="AG28" s="1" t="s">
@@ -5375,11 +5264,9 @@
       </c>
       <c r="AK28" s="1"/>
       <c r="AL28" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AM28" s="1" t="s">
-        <v>69</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="AM28" s="1"/>
       <c r="AN28" s="1" t="s">
         <v>70</v>
       </c>
@@ -5390,7 +5277,7 @@
         <v>72</v>
       </c>
       <c r="AQ28" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="AR28" s="1"/>
       <c r="AS28" s="1" t="s">
@@ -5410,7 +5297,7 @@
         <v>51</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
@@ -5464,7 +5351,7 @@
       </c>
       <c r="AD29" s="1"/>
       <c r="AE29" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AF29" s="1"/>
       <c r="AG29" s="1" t="s">
@@ -5479,11 +5366,9 @@
       </c>
       <c r="AK29" s="1"/>
       <c r="AL29" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AM29" s="1" t="s">
-        <v>69</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="AM29" s="1"/>
       <c r="AN29" s="1" t="s">
         <v>70</v>
       </c>
@@ -5494,7 +5379,7 @@
         <v>72</v>
       </c>
       <c r="AQ29" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="AR29" s="1"/>
       <c r="AS29" s="1" t="s">
@@ -5514,7 +5399,7 @@
         <v>51</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
@@ -5568,7 +5453,7 @@
       </c>
       <c r="AD30" s="1"/>
       <c r="AE30" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AF30" s="1"/>
       <c r="AG30" s="1" t="s">
@@ -5583,7 +5468,7 @@
       </c>
       <c r="AK30" s="1"/>
       <c r="AL30" s="1" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="AM30" s="1" t="s">
         <v>69</v>
@@ -5598,7 +5483,7 @@
         <v>72</v>
       </c>
       <c r="AQ30" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="AR30" s="1"/>
       <c r="AS30" s="1" t="s">
@@ -5618,7 +5503,7 @@
         <v>51</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
@@ -5672,7 +5557,7 @@
       </c>
       <c r="AD31" s="1"/>
       <c r="AE31" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AF31" s="1"/>
       <c r="AG31" s="1" t="s">
@@ -5687,7 +5572,7 @@
       </c>
       <c r="AK31" s="1"/>
       <c r="AL31" s="1" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="AM31" s="1" t="s">
         <v>69</v>
@@ -5702,7 +5587,7 @@
         <v>72</v>
       </c>
       <c r="AQ31" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="AR31" s="1"/>
       <c r="AS31" s="1" t="s">
@@ -5722,7 +5607,7 @@
         <v>51</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
@@ -5776,7 +5661,7 @@
       </c>
       <c r="AD32" s="1"/>
       <c r="AE32" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AF32" s="1"/>
       <c r="AG32" s="1" t="s">
@@ -5791,7 +5676,7 @@
       </c>
       <c r="AK32" s="1"/>
       <c r="AL32" s="1" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="AM32" s="1" t="s">
         <v>69</v>
@@ -5806,7 +5691,7 @@
         <v>72</v>
       </c>
       <c r="AQ32" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="AR32" s="1"/>
       <c r="AS32" s="1" t="s">
@@ -5826,7 +5711,7 @@
         <v>51</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
@@ -5880,7 +5765,7 @@
       </c>
       <c r="AD33" s="1"/>
       <c r="AE33" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AF33" s="1"/>
       <c r="AG33" s="1" t="s">
@@ -5895,7 +5780,7 @@
       </c>
       <c r="AK33" s="1"/>
       <c r="AL33" s="1" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="AM33" s="1" t="s">
         <v>69</v>
@@ -5910,7 +5795,7 @@
         <v>72</v>
       </c>
       <c r="AQ33" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="AR33" s="1"/>
       <c r="AS33" s="1" t="s">
@@ -5930,7 +5815,7 @@
         <v>51</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
@@ -5984,7 +5869,7 @@
       </c>
       <c r="AD34" s="1"/>
       <c r="AE34" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AF34" s="1"/>
       <c r="AG34" s="1" t="s">
@@ -5999,7 +5884,7 @@
       </c>
       <c r="AK34" s="1"/>
       <c r="AL34" s="1" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="AM34" s="1" t="s">
         <v>69</v>
@@ -6014,7 +5899,7 @@
         <v>72</v>
       </c>
       <c r="AQ34" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="AR34" s="1"/>
       <c r="AS34" s="1" t="s">
@@ -6034,7 +5919,7 @@
         <v>51</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
@@ -6088,7 +5973,7 @@
       </c>
       <c r="AD35" s="1"/>
       <c r="AE35" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AF35" s="1"/>
       <c r="AG35" s="1" t="s">
@@ -6103,11 +5988,9 @@
       </c>
       <c r="AK35" s="1"/>
       <c r="AL35" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AM35" s="1" t="s">
-        <v>69</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="AM35" s="1"/>
       <c r="AN35" s="1" t="s">
         <v>70</v>
       </c>
@@ -6118,7 +6001,7 @@
         <v>72</v>
       </c>
       <c r="AQ35" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="AR35" s="1"/>
       <c r="AS35" s="1" t="s">
@@ -6138,7 +6021,7 @@
         <v>51</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
@@ -6161,7 +6044,7 @@
         <v>58</v>
       </c>
       <c r="N36" s="3">
-        <v>4.0000000000000001E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="O36" s="3">
         <v>1</v>
@@ -6192,7 +6075,7 @@
       </c>
       <c r="AD36" s="1"/>
       <c r="AE36" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AF36" s="1"/>
       <c r="AG36" s="1" t="s">
@@ -6207,7 +6090,7 @@
       </c>
       <c r="AK36" s="1"/>
       <c r="AL36" s="1" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="AM36" s="1" t="s">
         <v>69</v>
@@ -6222,7 +6105,7 @@
         <v>72</v>
       </c>
       <c r="AQ36" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="AR36" s="1"/>
       <c r="AS36" s="1" t="s">
@@ -6242,7 +6125,7 @@
         <v>51</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
@@ -6265,7 +6148,7 @@
         <v>58</v>
       </c>
       <c r="N37" s="3">
-        <v>4.0000000000000001E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="O37" s="3">
         <v>1</v>
@@ -6296,7 +6179,7 @@
       </c>
       <c r="AD37" s="1"/>
       <c r="AE37" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AF37" s="1"/>
       <c r="AG37" s="1" t="s">
@@ -6311,7 +6194,7 @@
       </c>
       <c r="AK37" s="1"/>
       <c r="AL37" s="1" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="AM37" s="1" t="s">
         <v>69</v>
@@ -6326,7 +6209,7 @@
         <v>72</v>
       </c>
       <c r="AQ37" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="AR37" s="1"/>
       <c r="AS37" s="1" t="s">
@@ -6346,7 +6229,7 @@
         <v>51</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
@@ -6369,7 +6252,7 @@
         <v>58</v>
       </c>
       <c r="N38" s="3">
-        <v>4.0000000000000001E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="O38" s="3">
         <v>1</v>
@@ -6379,7 +6262,7 @@
       </c>
       <c r="Q38" s="1"/>
       <c r="R38" s="1" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="S38" s="1"/>
       <c r="T38" s="4">
@@ -6387,9 +6270,7 @@
       </c>
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
-      <c r="W38" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="W38" s="1"/>
       <c r="X38" s="1"/>
       <c r="Y38" s="1" t="s">
         <v>199</v>
@@ -6402,15 +6283,13 @@
       </c>
       <c r="AD38" s="1"/>
       <c r="AE38" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AF38" s="1"/>
       <c r="AG38" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AH38" s="1" t="s">
-        <v>201</v>
-      </c>
+      <c r="AH38" s="1"/>
       <c r="AI38" s="1" t="s">
         <v>66</v>
       </c>
@@ -6419,7 +6298,7 @@
       </c>
       <c r="AK38" s="1"/>
       <c r="AL38" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="AM38" s="1" t="s">
         <v>69</v>
@@ -6434,7 +6313,7 @@
         <v>72</v>
       </c>
       <c r="AQ38" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AR38" s="1"/>
       <c r="AS38" s="1" t="s">
@@ -6448,13 +6327,13 @@
     </row>
     <row r="39" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
@@ -6477,7 +6356,7 @@
         <v>58</v>
       </c>
       <c r="N39" s="3">
-        <v>4.0000000000000001E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="O39" s="3">
         <v>1</v>
@@ -6498,17 +6377,17 @@
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
       <c r="Y39" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
       <c r="AC39" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AD39" s="1"/>
       <c r="AE39" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AF39" s="1"/>
       <c r="AG39" s="1" t="s">
@@ -6523,7 +6402,7 @@
       </c>
       <c r="AK39" s="1"/>
       <c r="AL39" s="1" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="AM39" s="1" t="s">
         <v>69</v>
@@ -6538,7 +6417,7 @@
         <v>72</v>
       </c>
       <c r="AQ39" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="AR39" s="1"/>
       <c r="AS39" s="1" t="s">
@@ -6552,13 +6431,13 @@
     </row>
     <row r="40" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1" t="s">
@@ -6581,7 +6460,7 @@
         <v>58</v>
       </c>
       <c r="N40" s="3">
-        <v>4.0000000000000001E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="O40" s="3">
         <v>1</v>
@@ -6595,24 +6474,24 @@
       </c>
       <c r="S40" s="1"/>
       <c r="T40" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
       <c r="Y40" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Z40" s="1"/>
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
       <c r="AC40" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AD40" s="1"/>
       <c r="AE40" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AF40" s="1"/>
       <c r="AG40" s="1" t="s">
@@ -6627,7 +6506,7 @@
       </c>
       <c r="AK40" s="1"/>
       <c r="AL40" s="1" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="AM40" s="1" t="s">
         <v>69</v>
@@ -6642,7 +6521,7 @@
         <v>72</v>
       </c>
       <c r="AQ40" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="AR40" s="1"/>
       <c r="AS40" s="1" t="s">
@@ -6656,13 +6535,13 @@
     </row>
     <row r="41" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1" t="s">
@@ -6706,17 +6585,17 @@
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
       <c r="Y41" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Z41" s="1"/>
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
       <c r="AC41" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AD41" s="1"/>
       <c r="AE41" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AF41" s="1"/>
       <c r="AG41" s="1" t="s">
@@ -6731,7 +6610,7 @@
       </c>
       <c r="AK41" s="1"/>
       <c r="AL41" s="1" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="AM41" s="1" t="s">
         <v>69</v>
@@ -6746,7 +6625,7 @@
         <v>72</v>
       </c>
       <c r="AQ41" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="AR41" s="1"/>
       <c r="AS41" s="1" t="s">
@@ -6760,13 +6639,13 @@
     </row>
     <row r="42" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1" t="s">
@@ -6810,17 +6689,17 @@
       <c r="W42" s="1"/>
       <c r="X42" s="1"/>
       <c r="Y42" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Z42" s="1"/>
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
       <c r="AC42" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AD42" s="1"/>
       <c r="AE42" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AF42" s="1"/>
       <c r="AG42" s="1" t="s">
@@ -6835,7 +6714,7 @@
       </c>
       <c r="AK42" s="1"/>
       <c r="AL42" s="1" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="AM42" s="1" t="s">
         <v>69</v>
@@ -6850,7 +6729,7 @@
         <v>72</v>
       </c>
       <c r="AQ42" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="AR42" s="1"/>
       <c r="AS42" s="1" t="s">
@@ -6864,13 +6743,13 @@
     </row>
     <row r="43" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1" t="s">
@@ -6914,17 +6793,17 @@
       <c r="W43" s="1"/>
       <c r="X43" s="1"/>
       <c r="Y43" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Z43" s="1"/>
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
       <c r="AC43" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AD43" s="1"/>
       <c r="AE43" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AF43" s="1"/>
       <c r="AG43" s="1" t="s">
@@ -6939,11 +6818,9 @@
       </c>
       <c r="AK43" s="1"/>
       <c r="AL43" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AM43" s="1" t="s">
-        <v>69</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="AM43" s="1"/>
       <c r="AN43" s="1" t="s">
         <v>70</v>
       </c>
@@ -6954,7 +6831,7 @@
         <v>72</v>
       </c>
       <c r="AQ43" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="AR43" s="1"/>
       <c r="AS43" s="1" t="s">
@@ -6968,13 +6845,13 @@
     </row>
     <row r="44" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1" t="s">
@@ -7018,17 +6895,17 @@
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
       <c r="Y44" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Z44" s="1"/>
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
       <c r="AC44" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AD44" s="1"/>
       <c r="AE44" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AF44" s="1"/>
       <c r="AG44" s="1" t="s">
@@ -7043,7 +6920,7 @@
       </c>
       <c r="AK44" s="1"/>
       <c r="AL44" s="1" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="AM44" s="1" t="s">
         <v>69</v>
@@ -7058,7 +6935,7 @@
         <v>72</v>
       </c>
       <c r="AQ44" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="AR44" s="1"/>
       <c r="AS44" s="1" t="s">
@@ -7072,13 +6949,13 @@
     </row>
     <row r="45" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1" t="s">
@@ -7122,17 +6999,17 @@
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
       <c r="Y45" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Z45" s="1"/>
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
       <c r="AC45" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AD45" s="1"/>
       <c r="AE45" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AF45" s="1"/>
       <c r="AG45" s="1" t="s">
@@ -7147,9 +7024,11 @@
       </c>
       <c r="AK45" s="1"/>
       <c r="AL45" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AM45" s="1"/>
+        <v>104</v>
+      </c>
+      <c r="AM45" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="AN45" s="1" t="s">
         <v>70</v>
       </c>
@@ -7160,7 +7039,7 @@
         <v>72</v>
       </c>
       <c r="AQ45" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="AR45" s="1"/>
       <c r="AS45" s="1" t="s">
@@ -7174,13 +7053,13 @@
     </row>
     <row r="46" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1" t="s">
@@ -7213,7 +7092,7 @@
       </c>
       <c r="Q46" s="1"/>
       <c r="R46" s="1" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="S46" s="1"/>
       <c r="T46" s="4">
@@ -7221,26 +7100,30 @@
       </c>
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
-      <c r="W46" s="1"/>
+      <c r="W46" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="X46" s="1"/>
       <c r="Y46" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Z46" s="1"/>
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
       <c r="AC46" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AD46" s="1"/>
       <c r="AE46" s="1" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="AF46" s="1"/>
       <c r="AG46" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AH46" s="1"/>
+      <c r="AH46" s="1" t="s">
+        <v>225</v>
+      </c>
       <c r="AI46" s="1" t="s">
         <v>66</v>
       </c>
@@ -7249,7 +7132,7 @@
       </c>
       <c r="AK46" s="1"/>
       <c r="AL46" s="1" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="AM46" s="1" t="s">
         <v>69</v>
@@ -7264,7 +7147,7 @@
         <v>72</v>
       </c>
       <c r="AQ46" s="1" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="AR46" s="1"/>
       <c r="AS46" s="1" t="s">
@@ -7284,7 +7167,7 @@
         <v>51</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1" t="s">
@@ -7317,7 +7200,7 @@
       </c>
       <c r="Q47" s="1"/>
       <c r="R47" s="1" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="S47" s="1"/>
       <c r="T47" s="4">
@@ -7325,7 +7208,9 @@
       </c>
       <c r="U47" s="1"/>
       <c r="V47" s="1"/>
-      <c r="W47" s="1"/>
+      <c r="W47" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="X47" s="1"/>
       <c r="Y47" s="1" t="s">
         <v>227</v>
@@ -7338,13 +7223,15 @@
       </c>
       <c r="AD47" s="1"/>
       <c r="AE47" s="1" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="AF47" s="1"/>
       <c r="AG47" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AH47" s="1"/>
+      <c r="AH47" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="AI47" s="1" t="s">
         <v>66</v>
       </c>
@@ -7353,11 +7240,9 @@
       </c>
       <c r="AK47" s="1"/>
       <c r="AL47" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AM47" s="1" t="s">
-        <v>69</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="AM47" s="1"/>
       <c r="AN47" s="1" t="s">
         <v>70</v>
       </c>
@@ -7368,7 +7253,7 @@
         <v>72</v>
       </c>
       <c r="AQ47" s="1" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="AR47" s="1"/>
       <c r="AS47" s="1" t="s">
@@ -7382,13 +7267,13 @@
     </row>
     <row r="48" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1" t="s">
@@ -7425,24 +7310,24 @@
       </c>
       <c r="S48" s="1"/>
       <c r="T48" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48" s="1"/>
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
       <c r="Y48" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Z48" s="1"/>
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
       <c r="AC48" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AD48" s="1"/>
       <c r="AE48" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AF48" s="1"/>
       <c r="AG48" s="1" t="s">
@@ -7457,7 +7342,7 @@
       </c>
       <c r="AK48" s="1"/>
       <c r="AL48" s="1" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="AM48" s="1" t="s">
         <v>69</v>
@@ -7472,7 +7357,7 @@
         <v>72</v>
       </c>
       <c r="AQ48" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="AR48" s="1"/>
       <c r="AS48" s="1" t="s">
@@ -7486,13 +7371,13 @@
     </row>
     <row r="49" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1" t="s">
@@ -7529,24 +7414,24 @@
       </c>
       <c r="S49" s="1"/>
       <c r="T49" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U49" s="1"/>
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
       <c r="Y49" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Z49" s="1"/>
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
       <c r="AC49" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AD49" s="1"/>
       <c r="AE49" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AF49" s="1"/>
       <c r="AG49" s="1" t="s">
@@ -7561,7 +7446,7 @@
       </c>
       <c r="AK49" s="1"/>
       <c r="AL49" s="1" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="AM49" s="1" t="s">
         <v>69</v>
@@ -7576,7 +7461,7 @@
         <v>72</v>
       </c>
       <c r="AQ49" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="AR49" s="1"/>
       <c r="AS49" s="1" t="s">
@@ -7590,13 +7475,13 @@
     </row>
     <row r="50" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1" t="s">
@@ -7640,17 +7525,17 @@
       <c r="W50" s="1"/>
       <c r="X50" s="1"/>
       <c r="Y50" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Z50" s="1"/>
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
       <c r="AC50" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AD50" s="1"/>
       <c r="AE50" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AF50" s="1"/>
       <c r="AG50" s="1" t="s">
@@ -7665,7 +7550,7 @@
       </c>
       <c r="AK50" s="1"/>
       <c r="AL50" s="1" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="AM50" s="1" t="s">
         <v>69</v>
@@ -7680,7 +7565,7 @@
         <v>72</v>
       </c>
       <c r="AQ50" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="AR50" s="1"/>
       <c r="AS50" s="1" t="s">
@@ -7694,13 +7579,13 @@
     </row>
     <row r="51" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1" t="s">
@@ -7733,38 +7618,34 @@
       </c>
       <c r="Q51" s="1"/>
       <c r="R51" s="1" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="S51" s="1"/>
       <c r="T51" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U51" s="1"/>
       <c r="V51" s="1"/>
-      <c r="W51" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="W51" s="1"/>
       <c r="X51" s="1"/>
       <c r="Y51" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Z51" s="1"/>
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
       <c r="AC51" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AD51" s="1"/>
       <c r="AE51" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AF51" s="1"/>
       <c r="AG51" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AH51" s="1" t="s">
-        <v>241</v>
-      </c>
+      <c r="AH51" s="1"/>
       <c r="AI51" s="1" t="s">
         <v>66</v>
       </c>
@@ -7773,7 +7654,7 @@
       </c>
       <c r="AK51" s="1"/>
       <c r="AL51" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="AM51" s="1" t="s">
         <v>69</v>
@@ -7788,7 +7669,7 @@
         <v>72</v>
       </c>
       <c r="AQ51" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AR51" s="1"/>
       <c r="AS51" s="1" t="s">
@@ -7808,7 +7689,7 @@
         <v>51</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1" t="s">
@@ -7862,7 +7743,7 @@
       </c>
       <c r="AD52" s="1"/>
       <c r="AE52" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AF52" s="1"/>
       <c r="AG52" s="1" t="s">
@@ -7877,7 +7758,7 @@
       </c>
       <c r="AK52" s="1"/>
       <c r="AL52" s="1" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="AM52" s="1" t="s">
         <v>69</v>
@@ -7892,7 +7773,7 @@
         <v>72</v>
       </c>
       <c r="AQ52" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="AR52" s="1"/>
       <c r="AS52" s="1" t="s">
@@ -7912,7 +7793,7 @@
         <v>51</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1" t="s">
@@ -7949,7 +7830,7 @@
       </c>
       <c r="S53" s="1"/>
       <c r="T53" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U53" s="1"/>
       <c r="V53" s="1"/>
@@ -7966,7 +7847,7 @@
       </c>
       <c r="AD53" s="1"/>
       <c r="AE53" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AF53" s="1"/>
       <c r="AG53" s="1" t="s">
@@ -7981,11 +7862,9 @@
       </c>
       <c r="AK53" s="1"/>
       <c r="AL53" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AM53" s="1" t="s">
-        <v>69</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="AM53" s="1"/>
       <c r="AN53" s="1" t="s">
         <v>70</v>
       </c>
@@ -7996,7 +7875,7 @@
         <v>72</v>
       </c>
       <c r="AQ53" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="AR53" s="1"/>
       <c r="AS53" s="1" t="s">
@@ -8016,7 +7895,7 @@
         <v>51</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1" t="s">
@@ -8070,7 +7949,7 @@
       </c>
       <c r="AD54" s="1"/>
       <c r="AE54" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AF54" s="1"/>
       <c r="AG54" s="1" t="s">
@@ -8085,7 +7964,7 @@
       </c>
       <c r="AK54" s="1"/>
       <c r="AL54" s="1" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="AM54" s="1" t="s">
         <v>69</v>
@@ -8100,7 +7979,7 @@
         <v>72</v>
       </c>
       <c r="AQ54" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="AR54" s="1"/>
       <c r="AS54" s="1" t="s">
@@ -8120,7 +7999,7 @@
         <v>51</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1" t="s">
@@ -8153,7 +8032,7 @@
       </c>
       <c r="Q55" s="1"/>
       <c r="R55" s="1" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="S55" s="1"/>
       <c r="T55" s="4">
@@ -8161,9 +8040,7 @@
       </c>
       <c r="U55" s="1"/>
       <c r="V55" s="1"/>
-      <c r="W55" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="W55" s="1"/>
       <c r="X55" s="1"/>
       <c r="Y55" s="1" t="s">
         <v>252</v>
@@ -8176,15 +8053,13 @@
       </c>
       <c r="AD55" s="1"/>
       <c r="AE55" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AF55" s="1"/>
       <c r="AG55" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AH55" s="1" t="s">
-        <v>254</v>
-      </c>
+      <c r="AH55" s="1"/>
       <c r="AI55" s="1" t="s">
         <v>66</v>
       </c>
@@ -8193,7 +8068,7 @@
       </c>
       <c r="AK55" s="1"/>
       <c r="AL55" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="AM55" s="1" t="s">
         <v>69</v>
@@ -8208,7 +8083,7 @@
         <v>72</v>
       </c>
       <c r="AQ55" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AR55" s="1"/>
       <c r="AS55" s="1" t="s">
@@ -8222,13 +8097,13 @@
     </row>
     <row r="56" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1" t="s">
@@ -8261,7 +8136,7 @@
       </c>
       <c r="Q56" s="1"/>
       <c r="R56" s="1" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="S56" s="1"/>
       <c r="T56" s="4">
@@ -8269,30 +8144,26 @@
       </c>
       <c r="U56" s="1"/>
       <c r="V56" s="1"/>
-      <c r="W56" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="W56" s="1"/>
       <c r="X56" s="1"/>
       <c r="Y56" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Z56" s="1"/>
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
       <c r="AC56" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AD56" s="1"/>
       <c r="AE56" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AF56" s="1"/>
       <c r="AG56" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AH56" s="1" t="s">
-        <v>258</v>
-      </c>
+      <c r="AH56" s="1"/>
       <c r="AI56" s="1" t="s">
         <v>66</v>
       </c>
@@ -8301,7 +8172,7 @@
       </c>
       <c r="AK56" s="1"/>
       <c r="AL56" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="AM56" s="1"/>
       <c r="AN56" s="1" t="s">
@@ -8314,7 +8185,7 @@
         <v>72</v>
       </c>
       <c r="AQ56" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AR56" s="1"/>
       <c r="AS56" s="1" t="s">
@@ -8328,13 +8199,13 @@
     </row>
     <row r="57" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1" t="s">
@@ -8367,38 +8238,34 @@
       </c>
       <c r="Q57" s="1"/>
       <c r="R57" s="1" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="S57" s="1"/>
       <c r="T57" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U57" s="1"/>
       <c r="V57" s="1"/>
-      <c r="W57" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="W57" s="1"/>
       <c r="X57" s="1"/>
       <c r="Y57" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="Z57" s="1"/>
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
       <c r="AC57" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AD57" s="1"/>
       <c r="AE57" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AF57" s="1"/>
       <c r="AG57" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AH57" s="1" t="s">
-        <v>254</v>
-      </c>
+      <c r="AH57" s="1"/>
       <c r="AI57" s="1" t="s">
         <v>66</v>
       </c>
@@ -8407,9 +8274,11 @@
       </c>
       <c r="AK57" s="1"/>
       <c r="AL57" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM57" s="1"/>
+        <v>104</v>
+      </c>
+      <c r="AM57" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="AN57" s="1" t="s">
         <v>70</v>
       </c>
@@ -8420,7 +8289,7 @@
         <v>72</v>
       </c>
       <c r="AQ57" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AR57" s="1"/>
       <c r="AS57" s="1" t="s">
@@ -8434,13 +8303,13 @@
     </row>
     <row r="58" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1" t="s">
@@ -8477,24 +8346,24 @@
       </c>
       <c r="S58" s="1"/>
       <c r="T58" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U58" s="1"/>
       <c r="V58" s="1"/>
       <c r="W58" s="1"/>
       <c r="X58" s="1"/>
       <c r="Y58" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="Z58" s="1"/>
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
       <c r="AC58" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AD58" s="1"/>
       <c r="AE58" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AF58" s="1"/>
       <c r="AG58" s="1" t="s">
@@ -8509,11 +8378,9 @@
       </c>
       <c r="AK58" s="1"/>
       <c r="AL58" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AM58" s="1" t="s">
-        <v>69</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="AM58" s="1"/>
       <c r="AN58" s="1" t="s">
         <v>70</v>
       </c>
@@ -8524,7 +8391,7 @@
         <v>72</v>
       </c>
       <c r="AQ58" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="AR58" s="1"/>
       <c r="AS58" s="1" t="s">
@@ -8538,13 +8405,13 @@
     </row>
     <row r="59" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1" t="s">
@@ -8581,24 +8448,24 @@
       </c>
       <c r="S59" s="1"/>
       <c r="T59" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U59" s="1"/>
       <c r="V59" s="1"/>
       <c r="W59" s="1"/>
       <c r="X59" s="1"/>
       <c r="Y59" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Z59" s="1"/>
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
       <c r="AC59" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AD59" s="1"/>
       <c r="AE59" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AF59" s="1"/>
       <c r="AG59" s="1" t="s">
@@ -8613,7 +8480,7 @@
       </c>
       <c r="AK59" s="1"/>
       <c r="AL59" s="1" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="AM59" s="1" t="s">
         <v>69</v>
@@ -8628,7 +8495,7 @@
         <v>72</v>
       </c>
       <c r="AQ59" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="AR59" s="1"/>
       <c r="AS59" s="1" t="s">
@@ -8642,13 +8509,13 @@
     </row>
     <row r="60" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1" t="s">
@@ -8692,17 +8559,17 @@
       <c r="W60" s="1"/>
       <c r="X60" s="1"/>
       <c r="Y60" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Z60" s="1"/>
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
       <c r="AC60" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AD60" s="1"/>
       <c r="AE60" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AF60" s="1"/>
       <c r="AG60" s="1" t="s">
@@ -8717,7 +8584,7 @@
       </c>
       <c r="AK60" s="1"/>
       <c r="AL60" s="1" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="AM60" s="1" t="s">
         <v>69</v>
@@ -8732,7 +8599,7 @@
         <v>72</v>
       </c>
       <c r="AQ60" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="AR60" s="1"/>
       <c r="AS60" s="1" t="s">
@@ -8746,16 +8613,18 @@
     </row>
     <row r="61" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
+      <c r="E61" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1" t="s">
         <v>55</v>
@@ -8783,7 +8652,7 @@
       </c>
       <c r="Q61" s="1"/>
       <c r="R61" s="1" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="S61" s="1"/>
       <c r="T61" s="4">
@@ -8794,17 +8663,17 @@
       <c r="W61" s="1"/>
       <c r="X61" s="1"/>
       <c r="Y61" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="Z61" s="1"/>
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
       <c r="AC61" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AD61" s="1"/>
       <c r="AE61" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AF61" s="1"/>
       <c r="AG61" s="1" t="s">
@@ -8819,7 +8688,7 @@
       </c>
       <c r="AK61" s="1"/>
       <c r="AL61" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="AM61" s="1" t="s">
         <v>69</v>
@@ -8834,7 +8703,7 @@
         <v>72</v>
       </c>
       <c r="AQ61" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AR61" s="1"/>
       <c r="AS61" s="1" t="s">
@@ -8848,13 +8717,13 @@
     </row>
     <row r="62" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1" t="s">
@@ -8887,7 +8756,7 @@
       </c>
       <c r="Q62" s="1"/>
       <c r="R62" s="1" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="S62" s="1"/>
       <c r="T62" s="4">
@@ -8895,30 +8764,26 @@
       </c>
       <c r="U62" s="1"/>
       <c r="V62" s="1"/>
-      <c r="W62" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="W62" s="1"/>
       <c r="X62" s="1"/>
       <c r="Y62" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Z62" s="1"/>
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
       <c r="AC62" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AD62" s="1"/>
       <c r="AE62" s="1" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="AF62" s="1"/>
       <c r="AG62" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AH62" s="1" t="s">
-        <v>277</v>
-      </c>
+      <c r="AH62" s="1"/>
       <c r="AI62" s="1" t="s">
         <v>66</v>
       </c>
@@ -8927,7 +8792,7 @@
       </c>
       <c r="AK62" s="1"/>
       <c r="AL62" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="AM62" s="1" t="s">
         <v>69</v>
@@ -8942,7 +8807,7 @@
         <v>72</v>
       </c>
       <c r="AQ62" s="1" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="AR62" s="1"/>
       <c r="AS62" s="1" t="s">
@@ -8956,13 +8821,13 @@
     </row>
     <row r="63" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1" t="s">
@@ -8985,10 +8850,10 @@
         <v>58</v>
       </c>
       <c r="N63" s="3">
-        <v>2.9000000000000001E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="O63" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P63" s="1" t="s">
         <v>59</v>
@@ -8999,24 +8864,24 @@
       </c>
       <c r="S63" s="1"/>
       <c r="T63" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U63" s="1"/>
       <c r="V63" s="1"/>
       <c r="W63" s="1"/>
       <c r="X63" s="1"/>
       <c r="Y63" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="Z63" s="1"/>
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
       <c r="AC63" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="AD63" s="1"/>
       <c r="AE63" s="1" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AF63" s="1"/>
       <c r="AG63" s="1" t="s">
@@ -9031,7 +8896,7 @@
       </c>
       <c r="AK63" s="1"/>
       <c r="AL63" s="1" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="AM63" s="1" t="s">
         <v>69</v>
@@ -9046,7 +8911,7 @@
         <v>72</v>
       </c>
       <c r="AQ63" s="1" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="AR63" s="1"/>
       <c r="AS63" s="1" t="s">
@@ -9060,13 +8925,13 @@
     </row>
     <row r="64" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1" t="s">
@@ -9089,10 +8954,10 @@
         <v>58</v>
       </c>
       <c r="N64" s="3">
-        <v>2.9000000000000001E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="O64" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P64" s="1" t="s">
         <v>59</v>
@@ -9103,24 +8968,24 @@
       </c>
       <c r="S64" s="1"/>
       <c r="T64" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U64" s="1"/>
       <c r="V64" s="1"/>
       <c r="W64" s="1"/>
       <c r="X64" s="1"/>
       <c r="Y64" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="Z64" s="1"/>
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
       <c r="AC64" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="AD64" s="1"/>
       <c r="AE64" s="1" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AF64" s="1"/>
       <c r="AG64" s="1" t="s">
@@ -9135,7 +9000,7 @@
       </c>
       <c r="AK64" s="1"/>
       <c r="AL64" s="1" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="AM64" s="1" t="s">
         <v>69</v>
@@ -9150,7 +9015,7 @@
         <v>72</v>
       </c>
       <c r="AQ64" s="1" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="AR64" s="1"/>
       <c r="AS64" s="1" t="s">
@@ -9164,13 +9029,13 @@
     </row>
     <row r="65" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1" t="s">
@@ -9193,17 +9058,17 @@
         <v>58</v>
       </c>
       <c r="N65" s="3">
-        <v>2.9000000000000001E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="O65" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P65" s="1" t="s">
         <v>59</v>
       </c>
       <c r="Q65" s="1"/>
       <c r="R65" s="1" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="S65" s="1"/>
       <c r="T65" s="4">
@@ -9211,26 +9076,30 @@
       </c>
       <c r="U65" s="1"/>
       <c r="V65" s="1"/>
-      <c r="W65" s="1"/>
+      <c r="W65" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="X65" s="1"/>
       <c r="Y65" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="Z65" s="1"/>
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
       <c r="AC65" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AD65" s="1"/>
       <c r="AE65" s="1" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="AF65" s="1"/>
       <c r="AG65" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AH65" s="1"/>
+      <c r="AH65" s="1" t="s">
+        <v>284</v>
+      </c>
       <c r="AI65" s="1" t="s">
         <v>66</v>
       </c>
@@ -9239,11 +9108,9 @@
       </c>
       <c r="AK65" s="1"/>
       <c r="AL65" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AM65" s="1" t="s">
-        <v>69</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="AM65" s="1"/>
       <c r="AN65" s="1" t="s">
         <v>70</v>
       </c>
@@ -9254,7 +9121,7 @@
         <v>72</v>
       </c>
       <c r="AQ65" s="1" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AR65" s="1"/>
       <c r="AS65" s="1" t="s">
@@ -9268,13 +9135,13 @@
     </row>
     <row r="66" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1" t="s">
@@ -9297,17 +9164,17 @@
         <v>58</v>
       </c>
       <c r="N66" s="3">
-        <v>2.9000000000000001E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="O66" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P66" s="1" t="s">
         <v>59</v>
       </c>
       <c r="Q66" s="1"/>
       <c r="R66" s="1" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="S66" s="1"/>
       <c r="T66" s="4">
@@ -9315,30 +9182,26 @@
       </c>
       <c r="U66" s="1"/>
       <c r="V66" s="1"/>
-      <c r="W66" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="W66" s="1"/>
       <c r="X66" s="1"/>
       <c r="Y66" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="Z66" s="1"/>
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
       <c r="AC66" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AD66" s="1"/>
       <c r="AE66" s="1" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="AF66" s="1"/>
       <c r="AG66" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AH66" s="1" t="s">
-        <v>258</v>
-      </c>
+      <c r="AH66" s="1"/>
       <c r="AI66" s="1" t="s">
         <v>66</v>
       </c>
@@ -9347,11 +9210,9 @@
       </c>
       <c r="AK66" s="1"/>
       <c r="AL66" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM66" s="1" t="s">
-        <v>69</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="AM66" s="1"/>
       <c r="AN66" s="1" t="s">
         <v>70</v>
       </c>
@@ -9362,7 +9223,7 @@
         <v>72</v>
       </c>
       <c r="AQ66" s="1" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="AR66" s="1"/>
       <c r="AS66" s="1" t="s">
@@ -9376,13 +9237,13 @@
     </row>
     <row r="67" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1" t="s">
@@ -9405,10 +9266,10 @@
         <v>58</v>
       </c>
       <c r="N67" s="3">
-        <v>2.9000000000000001E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="O67" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P67" s="1" t="s">
         <v>59</v>
@@ -9419,24 +9280,24 @@
       </c>
       <c r="S67" s="1"/>
       <c r="T67" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U67" s="1"/>
       <c r="V67" s="1"/>
       <c r="W67" s="1"/>
       <c r="X67" s="1"/>
       <c r="Y67" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="Z67" s="1"/>
       <c r="AA67" s="1"/>
       <c r="AB67" s="1"/>
       <c r="AC67" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AD67" s="1"/>
       <c r="AE67" s="1" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AF67" s="1"/>
       <c r="AG67" s="1" t="s">
@@ -9451,11 +9312,9 @@
       </c>
       <c r="AK67" s="1"/>
       <c r="AL67" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AM67" s="1" t="s">
-        <v>69</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="AM67" s="1"/>
       <c r="AN67" s="1" t="s">
         <v>70</v>
       </c>
@@ -9466,7 +9325,7 @@
         <v>72</v>
       </c>
       <c r="AQ67" s="1" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="AR67" s="1"/>
       <c r="AS67" s="1" t="s">
@@ -9480,13 +9339,13 @@
     </row>
     <row r="68" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1" t="s">
@@ -9509,10 +9368,10 @@
         <v>58</v>
       </c>
       <c r="N68" s="3">
-        <v>2.9000000000000001E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="O68" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P68" s="1" t="s">
         <v>59</v>
@@ -9523,24 +9382,24 @@
       </c>
       <c r="S68" s="1"/>
       <c r="T68" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U68" s="1"/>
       <c r="V68" s="1"/>
       <c r="W68" s="1"/>
       <c r="X68" s="1"/>
       <c r="Y68" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="Z68" s="1"/>
       <c r="AA68" s="1"/>
       <c r="AB68" s="1"/>
       <c r="AC68" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AD68" s="1"/>
       <c r="AE68" s="1" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AF68" s="1"/>
       <c r="AG68" s="1" t="s">
@@ -9555,11 +9414,9 @@
       </c>
       <c r="AK68" s="1"/>
       <c r="AL68" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AM68" s="1" t="s">
-        <v>69</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="AM68" s="1"/>
       <c r="AN68" s="1" t="s">
         <v>70</v>
       </c>
@@ -9570,7 +9427,7 @@
         <v>72</v>
       </c>
       <c r="AQ68" s="1" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="AR68" s="1"/>
       <c r="AS68" s="1" t="s">
@@ -9584,13 +9441,13 @@
     </row>
     <row r="69" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1" t="s">
@@ -9613,10 +9470,10 @@
         <v>58</v>
       </c>
       <c r="N69" s="3">
-        <v>2.9000000000000001E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="O69" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P69" s="1" t="s">
         <v>59</v>
@@ -9634,17 +9491,17 @@
       <c r="W69" s="1"/>
       <c r="X69" s="1"/>
       <c r="Y69" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="Z69" s="1"/>
       <c r="AA69" s="1"/>
       <c r="AB69" s="1"/>
       <c r="AC69" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AD69" s="1"/>
       <c r="AE69" s="1" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AF69" s="1"/>
       <c r="AG69" s="1" t="s">
@@ -9659,11 +9516,9 @@
       </c>
       <c r="AK69" s="1"/>
       <c r="AL69" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AM69" s="1" t="s">
-        <v>69</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="AM69" s="1"/>
       <c r="AN69" s="1" t="s">
         <v>70</v>
       </c>
@@ -9674,7 +9529,7 @@
         <v>72</v>
       </c>
       <c r="AQ69" s="1" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="AR69" s="1"/>
       <c r="AS69" s="1" t="s">
@@ -9688,13 +9543,13 @@
     </row>
     <row r="70" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1" t="s">
@@ -9738,13 +9593,13 @@
       <c r="W70" s="1"/>
       <c r="X70" s="1"/>
       <c r="Y70" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="Z70" s="1"/>
       <c r="AA70" s="1"/>
       <c r="AB70" s="1"/>
       <c r="AC70" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AD70" s="1"/>
       <c r="AE70" s="1" t="s">
@@ -9792,13 +9647,13 @@
     </row>
     <row r="71" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1" t="s">
@@ -9842,13 +9697,13 @@
       <c r="W71" s="1"/>
       <c r="X71" s="1"/>
       <c r="Y71" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="Z71" s="1"/>
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
       <c r="AC71" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AD71" s="1"/>
       <c r="AE71" s="1" t="s">
@@ -9896,13 +9751,13 @@
     </row>
     <row r="72" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1" t="s">
@@ -9946,13 +9801,13 @@
       <c r="W72" s="1"/>
       <c r="X72" s="1"/>
       <c r="Y72" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="Z72" s="1"/>
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
       <c r="AC72" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AD72" s="1"/>
       <c r="AE72" s="1" t="s">
@@ -10000,13 +9855,13 @@
     </row>
     <row r="73" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1" t="s">
@@ -10050,17 +9905,17 @@
       <c r="W73" s="1"/>
       <c r="X73" s="1"/>
       <c r="Y73" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="Z73" s="1"/>
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
       <c r="AC73" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AD73" s="1"/>
       <c r="AE73" s="1" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="AF73" s="1"/>
       <c r="AG73" s="1" t="s">
@@ -10075,7 +9930,7 @@
       </c>
       <c r="AK73" s="1"/>
       <c r="AL73" s="1" t="s">
-        <v>311</v>
+        <v>68</v>
       </c>
       <c r="AM73" s="1" t="s">
         <v>69</v>
@@ -10090,7 +9945,7 @@
         <v>72</v>
       </c>
       <c r="AQ73" s="1" t="s">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="AR73" s="1"/>
       <c r="AS73" s="1" t="s">
@@ -10104,13 +9959,13 @@
     </row>
     <row r="74" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1" t="s">
@@ -10154,13 +10009,13 @@
       <c r="W74" s="1"/>
       <c r="X74" s="1"/>
       <c r="Y74" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="Z74" s="1"/>
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
       <c r="AC74" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AD74" s="1"/>
       <c r="AE74" s="1" t="s">
@@ -10208,13 +10063,13 @@
     </row>
     <row r="75" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1" t="s">
@@ -10258,13 +10113,13 @@
       <c r="W75" s="1"/>
       <c r="X75" s="1"/>
       <c r="Y75" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="Z75" s="1"/>
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
       <c r="AC75" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="AD75" s="1"/>
       <c r="AE75" s="1" t="s">
@@ -10312,13 +10167,13 @@
     </row>
     <row r="76" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1" t="s">
@@ -10362,13 +10217,13 @@
       <c r="W76" s="1"/>
       <c r="X76" s="1"/>
       <c r="Y76" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="Z76" s="1"/>
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
       <c r="AC76" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="AD76" s="1"/>
       <c r="AE76" s="1" t="s">
@@ -10416,13 +10271,13 @@
     </row>
     <row r="77" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1" t="s">
@@ -10466,13 +10321,13 @@
       <c r="W77" s="1"/>
       <c r="X77" s="1"/>
       <c r="Y77" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="Z77" s="1"/>
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
       <c r="AC77" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="AD77" s="1"/>
       <c r="AE77" s="1" t="s">
@@ -10520,13 +10375,13 @@
     </row>
     <row r="78" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1" t="s">
@@ -10559,7 +10414,7 @@
       </c>
       <c r="Q78" s="1"/>
       <c r="R78" s="1" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="S78" s="1"/>
       <c r="T78" s="4">
@@ -10567,26 +10422,30 @@
       </c>
       <c r="U78" s="1"/>
       <c r="V78" s="1"/>
-      <c r="W78" s="1"/>
+      <c r="W78" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="X78" s="1"/>
       <c r="Y78" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="Z78" s="1"/>
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
       <c r="AC78" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="AD78" s="1"/>
       <c r="AE78" s="1" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="AF78" s="1"/>
       <c r="AG78" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AH78" s="1"/>
+      <c r="AH78" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="AI78" s="1" t="s">
         <v>66</v>
       </c>
@@ -10595,11 +10454,9 @@
       </c>
       <c r="AK78" s="1"/>
       <c r="AL78" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AM78" s="1" t="s">
-        <v>69</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="AM78" s="1"/>
       <c r="AN78" s="1" t="s">
         <v>70</v>
       </c>
@@ -10610,7 +10467,7 @@
         <v>72</v>
       </c>
       <c r="AQ78" s="1" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="AR78" s="1"/>
       <c r="AS78" s="1" t="s">
@@ -10624,13 +10481,13 @@
     </row>
     <row r="79" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1" t="s">
@@ -10674,13 +10531,13 @@
       <c r="W79" s="1"/>
       <c r="X79" s="1"/>
       <c r="Y79" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="Z79" s="1"/>
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
       <c r="AC79" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AD79" s="1"/>
       <c r="AE79" s="1" t="s">
@@ -10728,13 +10585,13 @@
     </row>
     <row r="80" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1" t="s">
@@ -10771,24 +10628,24 @@
       </c>
       <c r="S80" s="1"/>
       <c r="T80" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U80" s="1"/>
       <c r="V80" s="1"/>
       <c r="W80" s="1"/>
       <c r="X80" s="1"/>
       <c r="Y80" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="Z80" s="1"/>
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
       <c r="AC80" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="AD80" s="1"/>
       <c r="AE80" s="1" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AF80" s="1"/>
       <c r="AG80" s="1" t="s">
@@ -10803,7 +10660,7 @@
       </c>
       <c r="AK80" s="1"/>
       <c r="AL80" s="1" t="s">
-        <v>68</v>
+        <v>330</v>
       </c>
       <c r="AM80" s="1" t="s">
         <v>69</v>
@@ -10818,7 +10675,7 @@
         <v>72</v>
       </c>
       <c r="AQ80" s="1" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="AR80" s="1"/>
       <c r="AS80" s="1" t="s">
@@ -10832,13 +10689,13 @@
     </row>
     <row r="81" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1" t="s">
@@ -10882,13 +10739,13 @@
       <c r="W81" s="1"/>
       <c r="X81" s="1"/>
       <c r="Y81" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="Z81" s="1"/>
       <c r="AA81" s="1"/>
       <c r="AB81" s="1"/>
       <c r="AC81" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="AD81" s="1"/>
       <c r="AE81" s="1" t="s">
@@ -10936,13 +10793,13 @@
     </row>
     <row r="82" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1" t="s">
@@ -10986,13 +10843,13 @@
       <c r="W82" s="1"/>
       <c r="X82" s="1"/>
       <c r="Y82" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="Z82" s="1"/>
       <c r="AA82" s="1"/>
       <c r="AB82" s="1"/>
       <c r="AC82" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="AD82" s="1"/>
       <c r="AE82" s="1" t="s">
@@ -11040,13 +10897,13 @@
     </row>
     <row r="83" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1" t="s">
@@ -11090,13 +10947,13 @@
       <c r="W83" s="1"/>
       <c r="X83" s="1"/>
       <c r="Y83" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Z83" s="1"/>
       <c r="AA83" s="1"/>
       <c r="AB83" s="1"/>
       <c r="AC83" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AD83" s="1"/>
       <c r="AE83" s="1" t="s">
@@ -11144,13 +11001,13 @@
     </row>
     <row r="84" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1" t="s">
@@ -11194,13 +11051,13 @@
       <c r="W84" s="1"/>
       <c r="X84" s="1"/>
       <c r="Y84" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="Z84" s="1"/>
       <c r="AA84" s="1"/>
       <c r="AB84" s="1"/>
       <c r="AC84" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="AD84" s="1"/>
       <c r="AE84" s="1" t="s">
@@ -11248,13 +11105,13 @@
     </row>
     <row r="85" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1" t="s">
@@ -11298,17 +11155,17 @@
       <c r="W85" s="1"/>
       <c r="X85" s="1"/>
       <c r="Y85" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="Z85" s="1"/>
       <c r="AA85" s="1"/>
       <c r="AB85" s="1"/>
       <c r="AC85" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AD85" s="1"/>
       <c r="AE85" s="1" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="AF85" s="1"/>
       <c r="AG85" s="1" t="s">
@@ -11323,7 +11180,7 @@
       </c>
       <c r="AK85" s="1"/>
       <c r="AL85" s="1" t="s">
-        <v>311</v>
+        <v>68</v>
       </c>
       <c r="AM85" s="1" t="s">
         <v>69</v>
@@ -11338,7 +11195,7 @@
         <v>72</v>
       </c>
       <c r="AQ85" s="1" t="s">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="AR85" s="1"/>
       <c r="AS85" s="1" t="s">
@@ -11352,13 +11209,13 @@
     </row>
     <row r="86" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1" t="s">
@@ -11402,13 +11259,13 @@
       <c r="W86" s="1"/>
       <c r="X86" s="1"/>
       <c r="Y86" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="Z86" s="1"/>
       <c r="AA86" s="1"/>
       <c r="AB86" s="1"/>
       <c r="AC86" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AD86" s="1"/>
       <c r="AE86" s="1" t="s">
@@ -11456,13 +11313,13 @@
     </row>
     <row r="87" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1" t="s">
@@ -11506,13 +11363,13 @@
       <c r="W87" s="1"/>
       <c r="X87" s="1"/>
       <c r="Y87" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Z87" s="1"/>
       <c r="AA87" s="1"/>
       <c r="AB87" s="1"/>
       <c r="AC87" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AD87" s="1"/>
       <c r="AE87" s="1" t="s">
@@ -11560,13 +11417,13 @@
     </row>
     <row r="88" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1" t="s">
@@ -11610,13 +11467,13 @@
       <c r="W88" s="1"/>
       <c r="X88" s="1"/>
       <c r="Y88" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="Z88" s="1"/>
       <c r="AA88" s="1"/>
       <c r="AB88" s="1"/>
       <c r="AC88" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="AD88" s="1"/>
       <c r="AE88" s="1" t="s">
@@ -11664,13 +11521,13 @@
     </row>
     <row r="89" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1" t="s">
@@ -11714,13 +11571,13 @@
       <c r="W89" s="1"/>
       <c r="X89" s="1"/>
       <c r="Y89" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="Z89" s="1"/>
       <c r="AA89" s="1"/>
       <c r="AB89" s="1"/>
       <c r="AC89" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AD89" s="1"/>
       <c r="AE89" s="1" t="s">
@@ -11768,13 +11625,13 @@
     </row>
     <row r="90" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1" t="s">
@@ -11818,17 +11675,17 @@
       <c r="W90" s="1"/>
       <c r="X90" s="1"/>
       <c r="Y90" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="Z90" s="1"/>
       <c r="AA90" s="1"/>
       <c r="AB90" s="1"/>
       <c r="AC90" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AD90" s="1"/>
       <c r="AE90" s="1" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AF90" s="1"/>
       <c r="AG90" s="1" t="s">
@@ -11843,7 +11700,7 @@
       </c>
       <c r="AK90" s="1"/>
       <c r="AL90" s="1" t="s">
-        <v>68</v>
+        <v>330</v>
       </c>
       <c r="AM90" s="1" t="s">
         <v>69</v>
@@ -11858,7 +11715,7 @@
         <v>72</v>
       </c>
       <c r="AQ90" s="1" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="AR90" s="1"/>
       <c r="AS90" s="1" t="s">
@@ -11872,16 +11729,18 @@
     </row>
     <row r="91" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
+      <c r="E91" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1" t="s">
         <v>55</v>
@@ -11909,7 +11768,7 @@
       </c>
       <c r="Q91" s="1"/>
       <c r="R91" s="1" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="S91" s="1"/>
       <c r="T91" s="4">
@@ -11920,17 +11779,17 @@
       <c r="W91" s="1"/>
       <c r="X91" s="1"/>
       <c r="Y91" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="Z91" s="1"/>
       <c r="AA91" s="1"/>
       <c r="AB91" s="1"/>
       <c r="AC91" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="AD91" s="1"/>
       <c r="AE91" s="1" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="AF91" s="1"/>
       <c r="AG91" s="1" t="s">
@@ -11945,7 +11804,7 @@
       </c>
       <c r="AK91" s="1"/>
       <c r="AL91" s="1" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="AM91" s="1" t="s">
         <v>69</v>
@@ -11960,7 +11819,7 @@
         <v>72</v>
       </c>
       <c r="AQ91" s="1" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="AR91" s="1"/>
       <c r="AS91" s="1" t="s">
@@ -11974,13 +11833,13 @@
     </row>
     <row r="92" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1" t="s">
@@ -12024,13 +11883,13 @@
       <c r="W92" s="1"/>
       <c r="X92" s="1"/>
       <c r="Y92" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="Z92" s="1"/>
       <c r="AA92" s="1"/>
       <c r="AB92" s="1"/>
       <c r="AC92" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AD92" s="1"/>
       <c r="AE92" s="1" t="s">
@@ -12078,13 +11937,13 @@
     </row>
     <row r="93" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1" t="s">
@@ -12121,24 +11980,24 @@
       </c>
       <c r="S93" s="1"/>
       <c r="T93" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U93" s="1"/>
       <c r="V93" s="1"/>
       <c r="W93" s="1"/>
       <c r="X93" s="1"/>
       <c r="Y93" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="Z93" s="1"/>
       <c r="AA93" s="1"/>
       <c r="AB93" s="1"/>
       <c r="AC93" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AD93" s="1"/>
       <c r="AE93" s="1" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AF93" s="1"/>
       <c r="AG93" s="1" t="s">
@@ -12153,7 +12012,7 @@
       </c>
       <c r="AK93" s="1"/>
       <c r="AL93" s="1" t="s">
-        <v>68</v>
+        <v>330</v>
       </c>
       <c r="AM93" s="1" t="s">
         <v>69</v>
@@ -12168,7 +12027,7 @@
         <v>72</v>
       </c>
       <c r="AQ93" s="1" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="AR93" s="1"/>
       <c r="AS93" s="1" t="s">
@@ -12182,13 +12041,13 @@
     </row>
     <row r="94" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1" t="s">
@@ -12232,13 +12091,13 @@
       <c r="W94" s="1"/>
       <c r="X94" s="1"/>
       <c r="Y94" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="Z94" s="1"/>
       <c r="AA94" s="1"/>
       <c r="AB94" s="1"/>
       <c r="AC94" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AD94" s="1"/>
       <c r="AE94" s="1" t="s">
@@ -12259,9 +12118,7 @@
       <c r="AL94" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AM94" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="AM94" s="1"/>
       <c r="AN94" s="1" t="s">
         <v>70</v>
       </c>
@@ -12286,13 +12143,13 @@
     </row>
     <row r="95" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1" t="s">
@@ -12336,13 +12193,13 @@
       <c r="W95" s="1"/>
       <c r="X95" s="1"/>
       <c r="Y95" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="Z95" s="1"/>
       <c r="AA95" s="1"/>
       <c r="AB95" s="1"/>
       <c r="AC95" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="AD95" s="1"/>
       <c r="AE95" s="1" t="s">
@@ -12363,9 +12220,7 @@
       <c r="AL95" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AM95" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="AM95" s="1"/>
       <c r="AN95" s="1" t="s">
         <v>70</v>
       </c>
@@ -12390,13 +12245,13 @@
     </row>
     <row r="96" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1" t="s">
@@ -12440,17 +12295,17 @@
       <c r="W96" s="1"/>
       <c r="X96" s="1"/>
       <c r="Y96" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="Z96" s="1"/>
       <c r="AA96" s="1"/>
       <c r="AB96" s="1"/>
       <c r="AC96" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="AD96" s="1"/>
       <c r="AE96" s="1" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="AF96" s="1"/>
       <c r="AG96" s="1" t="s">
@@ -12465,9 +12320,11 @@
       </c>
       <c r="AK96" s="1"/>
       <c r="AL96" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AM96" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="AM96" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="AN96" s="1" t="s">
         <v>70</v>
       </c>
@@ -12478,7 +12335,7 @@
         <v>72</v>
       </c>
       <c r="AQ96" s="1" t="s">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="AR96" s="1"/>
       <c r="AS96" s="1" t="s">
@@ -12492,13 +12349,13 @@
     </row>
     <row r="97" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1" t="s">
@@ -12542,13 +12399,13 @@
       <c r="W97" s="1"/>
       <c r="X97" s="1"/>
       <c r="Y97" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="Z97" s="1"/>
       <c r="AA97" s="1"/>
       <c r="AB97" s="1"/>
       <c r="AC97" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="AD97" s="1"/>
       <c r="AE97" s="1" t="s">
@@ -12596,13 +12453,13 @@
     </row>
     <row r="98" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1" t="s">
@@ -12635,7 +12492,7 @@
       </c>
       <c r="Q98" s="1"/>
       <c r="R98" s="1" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="S98" s="1"/>
       <c r="T98" s="4">
@@ -12643,30 +12500,26 @@
       </c>
       <c r="U98" s="1"/>
       <c r="V98" s="1"/>
-      <c r="W98" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="W98" s="1"/>
       <c r="X98" s="1"/>
       <c r="Y98" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="Z98" s="1"/>
       <c r="AA98" s="1"/>
       <c r="AB98" s="1"/>
       <c r="AC98" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AD98" s="1"/>
       <c r="AE98" s="1" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="AF98" s="1"/>
       <c r="AG98" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AH98" s="1" t="s">
-        <v>241</v>
-      </c>
+      <c r="AH98" s="1"/>
       <c r="AI98" s="1" t="s">
         <v>66</v>
       </c>
@@ -12675,7 +12528,7 @@
       </c>
       <c r="AK98" s="1"/>
       <c r="AL98" s="1" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="AM98" s="1" t="s">
         <v>69</v>
@@ -12690,7 +12543,7 @@
         <v>72</v>
       </c>
       <c r="AQ98" s="1" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="AR98" s="1"/>
       <c r="AS98" s="1" t="s">
@@ -12704,13 +12557,13 @@
     </row>
     <row r="99" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1" t="s">
@@ -12754,13 +12607,13 @@
       <c r="W99" s="1"/>
       <c r="X99" s="1"/>
       <c r="Y99" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="Z99" s="1"/>
       <c r="AA99" s="1"/>
       <c r="AB99" s="1"/>
       <c r="AC99" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AD99" s="1"/>
       <c r="AE99" s="1" t="s">
@@ -12781,9 +12634,7 @@
       <c r="AL99" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AM99" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="AM99" s="1"/>
       <c r="AN99" s="1" t="s">
         <v>70</v>
       </c>
@@ -12808,13 +12659,13 @@
     </row>
     <row r="100" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="1" t="s">
@@ -12851,20 +12702,20 @@
       </c>
       <c r="S100" s="1"/>
       <c r="T100" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U100" s="1"/>
       <c r="V100" s="1"/>
       <c r="W100" s="1"/>
       <c r="X100" s="1"/>
       <c r="Y100" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="Z100" s="1"/>
       <c r="AA100" s="1"/>
       <c r="AB100" s="1"/>
       <c r="AC100" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AD100" s="1"/>
       <c r="AE100" s="1" t="s">
@@ -12912,13 +12763,13 @@
     </row>
     <row r="101" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1" t="s">
@@ -12962,13 +12813,13 @@
       <c r="W101" s="1"/>
       <c r="X101" s="1"/>
       <c r="Y101" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="Z101" s="1"/>
       <c r="AA101" s="1"/>
       <c r="AB101" s="1"/>
       <c r="AC101" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="AD101" s="1"/>
       <c r="AE101" s="1" t="s">
@@ -13016,13 +12867,13 @@
     </row>
     <row r="102" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="1" t="s">
@@ -13066,13 +12917,13 @@
       <c r="W102" s="1"/>
       <c r="X102" s="1"/>
       <c r="Y102" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="Z102" s="1"/>
       <c r="AA102" s="1"/>
       <c r="AB102" s="1"/>
       <c r="AC102" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AD102" s="1"/>
       <c r="AE102" s="1" t="s">
@@ -13120,13 +12971,13 @@
     </row>
     <row r="103" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D103" s="1"/>
       <c r="E103" s="1" t="s">
@@ -13170,13 +13021,13 @@
       <c r="W103" s="1"/>
       <c r="X103" s="1"/>
       <c r="Y103" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="Z103" s="1"/>
       <c r="AA103" s="1"/>
       <c r="AB103" s="1"/>
       <c r="AC103" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="AD103" s="1"/>
       <c r="AE103" s="1" t="s">
@@ -13224,13 +13075,13 @@
     </row>
     <row r="104" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1" t="s">
@@ -13274,13 +13125,13 @@
       <c r="W104" s="1"/>
       <c r="X104" s="1"/>
       <c r="Y104" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="Z104" s="1"/>
       <c r="AA104" s="1"/>
       <c r="AB104" s="1"/>
       <c r="AC104" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AD104" s="1"/>
       <c r="AE104" s="1" t="s">
@@ -13328,13 +13179,13 @@
     </row>
     <row r="105" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1" t="s">
@@ -13378,13 +13229,13 @@
       <c r="W105" s="1"/>
       <c r="X105" s="1"/>
       <c r="Y105" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="Z105" s="1"/>
       <c r="AA105" s="1"/>
       <c r="AB105" s="1"/>
       <c r="AC105" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AD105" s="1"/>
       <c r="AE105" s="1" t="s">
@@ -13432,13 +13283,13 @@
     </row>
     <row r="106" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1" t="s">
@@ -13482,13 +13333,13 @@
       <c r="W106" s="1"/>
       <c r="X106" s="1"/>
       <c r="Y106" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="Z106" s="1"/>
       <c r="AA106" s="1"/>
       <c r="AB106" s="1"/>
       <c r="AC106" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="AD106" s="1"/>
       <c r="AE106" s="1" t="s">
@@ -13536,13 +13387,13 @@
     </row>
     <row r="107" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1" t="s">
@@ -13586,13 +13437,13 @@
       <c r="W107" s="1"/>
       <c r="X107" s="1"/>
       <c r="Y107" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="Z107" s="1"/>
       <c r="AA107" s="1"/>
       <c r="AB107" s="1"/>
       <c r="AC107" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AD107" s="1"/>
       <c r="AE107" s="1" t="s">
@@ -13640,13 +13491,13 @@
     </row>
     <row r="108" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1" t="s">
@@ -13690,17 +13541,17 @@
       <c r="W108" s="1"/>
       <c r="X108" s="1"/>
       <c r="Y108" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="Z108" s="1"/>
       <c r="AA108" s="1"/>
       <c r="AB108" s="1"/>
       <c r="AC108" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AD108" s="1"/>
       <c r="AE108" s="1" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AF108" s="1"/>
       <c r="AG108" s="1" t="s">
@@ -13715,7 +13566,7 @@
       </c>
       <c r="AK108" s="1"/>
       <c r="AL108" s="1" t="s">
-        <v>68</v>
+        <v>330</v>
       </c>
       <c r="AM108" s="1" t="s">
         <v>69</v>
@@ -13730,7 +13581,7 @@
         <v>72</v>
       </c>
       <c r="AQ108" s="1" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="AR108" s="1"/>
       <c r="AS108" s="1" t="s">
@@ -13744,13 +13595,13 @@
     </row>
     <row r="109" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1" t="s">
@@ -13794,13 +13645,13 @@
       <c r="W109" s="1"/>
       <c r="X109" s="1"/>
       <c r="Y109" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="Z109" s="1"/>
       <c r="AA109" s="1"/>
       <c r="AB109" s="1"/>
       <c r="AC109" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AD109" s="1"/>
       <c r="AE109" s="1" t="s">
@@ -13848,13 +13699,13 @@
     </row>
     <row r="110" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D110" s="1"/>
       <c r="E110" s="1" t="s">
@@ -13898,13 +13749,13 @@
       <c r="W110" s="1"/>
       <c r="X110" s="1"/>
       <c r="Y110" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="Z110" s="1"/>
       <c r="AA110" s="1"/>
       <c r="AB110" s="1"/>
       <c r="AC110" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AD110" s="1"/>
       <c r="AE110" s="1" t="s">
@@ -13952,13 +13803,13 @@
     </row>
     <row r="111" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1" t="s">
@@ -13981,10 +13832,10 @@
         <v>58</v>
       </c>
       <c r="N111" s="3">
-        <v>7.0000000000000001E-3</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="O111" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P111" s="1" t="s">
         <v>59</v>
@@ -14002,17 +13853,17 @@
       <c r="W111" s="1"/>
       <c r="X111" s="1"/>
       <c r="Y111" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="Z111" s="1"/>
       <c r="AA111" s="1"/>
       <c r="AB111" s="1"/>
       <c r="AC111" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AD111" s="1"/>
       <c r="AE111" s="1" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="AF111" s="1"/>
       <c r="AG111" s="1" t="s">
@@ -14027,7 +13878,7 @@
       </c>
       <c r="AK111" s="1"/>
       <c r="AL111" s="1" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="AM111" s="1" t="s">
         <v>69</v>
@@ -14042,7 +13893,7 @@
         <v>72</v>
       </c>
       <c r="AQ111" s="1" t="s">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="AR111" s="1"/>
       <c r="AS111" s="1" t="s">
@@ -14056,13 +13907,13 @@
     </row>
     <row r="112" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="1" t="s">
@@ -14085,10 +13936,10 @@
         <v>58</v>
       </c>
       <c r="N112" s="3">
-        <v>7.0000000000000001E-3</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="O112" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P112" s="1" t="s">
         <v>59</v>
@@ -14106,17 +13957,17 @@
       <c r="W112" s="1"/>
       <c r="X112" s="1"/>
       <c r="Y112" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="Z112" s="1"/>
       <c r="AA112" s="1"/>
       <c r="AB112" s="1"/>
       <c r="AC112" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AD112" s="1"/>
       <c r="AE112" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AF112" s="1"/>
       <c r="AG112" s="1" t="s">
@@ -14131,7 +13982,7 @@
       </c>
       <c r="AK112" s="1"/>
       <c r="AL112" s="1" t="s">
-        <v>125</v>
+        <v>330</v>
       </c>
       <c r="AM112" s="1" t="s">
         <v>69</v>
@@ -14146,7 +13997,7 @@
         <v>72</v>
       </c>
       <c r="AQ112" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="AR112" s="1"/>
       <c r="AS112" s="1" t="s">
@@ -14160,13 +14011,13 @@
     </row>
     <row r="113" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D113" s="1"/>
       <c r="E113" s="1" t="s">
@@ -14210,17 +14061,17 @@
       <c r="W113" s="1"/>
       <c r="X113" s="1"/>
       <c r="Y113" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="Z113" s="1"/>
       <c r="AA113" s="1"/>
       <c r="AB113" s="1"/>
       <c r="AC113" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="AD113" s="1"/>
       <c r="AE113" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AF113" s="1"/>
       <c r="AG113" s="1" t="s">
@@ -14235,7 +14086,7 @@
       </c>
       <c r="AK113" s="1"/>
       <c r="AL113" s="1" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="AM113" s="1" t="s">
         <v>69</v>
@@ -14250,7 +14101,7 @@
         <v>72</v>
       </c>
       <c r="AQ113" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="AR113" s="1"/>
       <c r="AS113" s="1" t="s">
@@ -14264,13 +14115,13 @@
     </row>
     <row r="114" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D114" s="1"/>
       <c r="E114" s="1" t="s">
@@ -14314,17 +14165,17 @@
       <c r="W114" s="1"/>
       <c r="X114" s="1"/>
       <c r="Y114" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="Z114" s="1"/>
       <c r="AA114" s="1"/>
       <c r="AB114" s="1"/>
       <c r="AC114" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AD114" s="1"/>
       <c r="AE114" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AF114" s="1"/>
       <c r="AG114" s="1" t="s">
@@ -14339,7 +14190,7 @@
       </c>
       <c r="AK114" s="1"/>
       <c r="AL114" s="1" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="AM114" s="1" t="s">
         <v>69</v>
@@ -14354,7 +14205,7 @@
         <v>72</v>
       </c>
       <c r="AQ114" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="AR114" s="1"/>
       <c r="AS114" s="1" t="s">
@@ -14368,13 +14219,13 @@
     </row>
     <row r="115" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1" t="s">
@@ -14418,17 +14269,17 @@
       <c r="W115" s="1"/>
       <c r="X115" s="1"/>
       <c r="Y115" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="Z115" s="1"/>
       <c r="AA115" s="1"/>
       <c r="AB115" s="1"/>
       <c r="AC115" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="AD115" s="1"/>
       <c r="AE115" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AF115" s="1"/>
       <c r="AG115" s="1" t="s">
@@ -14443,7 +14294,7 @@
       </c>
       <c r="AK115" s="1"/>
       <c r="AL115" s="1" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="AM115" s="1" t="s">
         <v>69</v>
@@ -14458,7 +14309,7 @@
         <v>72</v>
       </c>
       <c r="AQ115" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="AR115" s="1"/>
       <c r="AS115" s="1" t="s">
@@ -14472,13 +14323,13 @@
     </row>
     <row r="116" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D116" s="1"/>
       <c r="E116" s="1" t="s">
@@ -14501,7 +14352,7 @@
         <v>58</v>
       </c>
       <c r="N116" s="3">
-        <v>7.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="O116" s="3">
         <v>1</v>
@@ -14522,17 +14373,17 @@
       <c r="W116" s="1"/>
       <c r="X116" s="1"/>
       <c r="Y116" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="Z116" s="1"/>
       <c r="AA116" s="1"/>
       <c r="AB116" s="1"/>
       <c r="AC116" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AD116" s="1"/>
       <c r="AE116" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AF116" s="1"/>
       <c r="AG116" s="1" t="s">
@@ -14547,9 +14398,11 @@
       </c>
       <c r="AK116" s="1"/>
       <c r="AL116" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AM116" s="1"/>
+        <v>104</v>
+      </c>
+      <c r="AM116" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="AN116" s="1" t="s">
         <v>70</v>
       </c>
@@ -14560,7 +14413,7 @@
         <v>72</v>
       </c>
       <c r="AQ116" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="AR116" s="1"/>
       <c r="AS116" s="1" t="s">
@@ -14574,13 +14427,13 @@
     </row>
     <row r="117" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1" t="s">
@@ -14624,17 +14477,17 @@
       <c r="W117" s="1"/>
       <c r="X117" s="1"/>
       <c r="Y117" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="Z117" s="1"/>
       <c r="AA117" s="1"/>
       <c r="AB117" s="1"/>
       <c r="AC117" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AD117" s="1"/>
       <c r="AE117" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AF117" s="1"/>
       <c r="AG117" s="1" t="s">
@@ -14649,7 +14502,7 @@
       </c>
       <c r="AK117" s="1"/>
       <c r="AL117" s="1" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="AM117" s="1" t="s">
         <v>69</v>
@@ -14664,7 +14517,7 @@
         <v>72</v>
       </c>
       <c r="AQ117" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="AR117" s="1"/>
       <c r="AS117" s="1" t="s">
@@ -14678,13 +14531,13 @@
     </row>
     <row r="118" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1" t="s">
@@ -14707,10 +14560,10 @@
         <v>58</v>
       </c>
       <c r="N118" s="3">
-        <v>4.0000000000000001E-3</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="O118" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P118" s="1" t="s">
         <v>59</v>
@@ -14728,17 +14581,17 @@
       <c r="W118" s="1"/>
       <c r="X118" s="1"/>
       <c r="Y118" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="Z118" s="1"/>
       <c r="AA118" s="1"/>
       <c r="AB118" s="1"/>
       <c r="AC118" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="AD118" s="1"/>
       <c r="AE118" s="1" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="AF118" s="1"/>
       <c r="AG118" s="1" t="s">
@@ -14753,7 +14606,7 @@
       </c>
       <c r="AK118" s="1"/>
       <c r="AL118" s="1" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="AM118" s="1" t="s">
         <v>69</v>
@@ -14768,7 +14621,7 @@
         <v>72</v>
       </c>
       <c r="AQ118" s="1" t="s">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="AR118" s="1"/>
       <c r="AS118" s="1" t="s">
@@ -14782,13 +14635,13 @@
     </row>
     <row r="119" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1" t="s">
@@ -14811,10 +14664,10 @@
         <v>58</v>
       </c>
       <c r="N119" s="3">
-        <v>4.0000000000000001E-3</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="O119" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P119" s="1" t="s">
         <v>59</v>
@@ -14832,17 +14685,17 @@
       <c r="W119" s="1"/>
       <c r="X119" s="1"/>
       <c r="Y119" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="Z119" s="1"/>
       <c r="AA119" s="1"/>
       <c r="AB119" s="1"/>
       <c r="AC119" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="AD119" s="1"/>
       <c r="AE119" s="1" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="AF119" s="1"/>
       <c r="AG119" s="1" t="s">
@@ -14857,7 +14710,7 @@
       </c>
       <c r="AK119" s="1"/>
       <c r="AL119" s="1" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="AM119" s="1" t="s">
         <v>69</v>
@@ -14872,7 +14725,7 @@
         <v>72</v>
       </c>
       <c r="AQ119" s="1" t="s">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="AR119" s="1"/>
       <c r="AS119" s="1" t="s">
@@ -14886,13 +14739,13 @@
     </row>
     <row r="120" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1" t="s">
@@ -14915,10 +14768,10 @@
         <v>58</v>
       </c>
       <c r="N120" s="3">
-        <v>4.0000000000000001E-3</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="O120" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P120" s="1" t="s">
         <v>59</v>
@@ -14936,17 +14789,17 @@
       <c r="W120" s="1"/>
       <c r="X120" s="1"/>
       <c r="Y120" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="Z120" s="1"/>
       <c r="AA120" s="1"/>
       <c r="AB120" s="1"/>
       <c r="AC120" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="AD120" s="1"/>
       <c r="AE120" s="1" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="AF120" s="1"/>
       <c r="AG120" s="1" t="s">
@@ -14961,7 +14814,7 @@
       </c>
       <c r="AK120" s="1"/>
       <c r="AL120" s="1" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="AM120" s="1" t="s">
         <v>69</v>
@@ -14976,7 +14829,7 @@
         <v>72</v>
       </c>
       <c r="AQ120" s="1" t="s">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="AR120" s="1"/>
       <c r="AS120" s="1" t="s">
@@ -14990,13 +14843,13 @@
     </row>
     <row r="121" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1" t="s">
@@ -15019,10 +14872,10 @@
         <v>58</v>
       </c>
       <c r="N121" s="3">
-        <v>2.9000000000000001E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="O121" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P121" s="1" t="s">
         <v>59</v>
@@ -15040,13 +14893,13 @@
       <c r="W121" s="1"/>
       <c r="X121" s="1"/>
       <c r="Y121" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="Z121" s="1"/>
       <c r="AA121" s="1"/>
       <c r="AB121" s="1"/>
       <c r="AC121" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="AD121" s="1"/>
       <c r="AE121" s="1" t="s">
@@ -15065,7 +14918,7 @@
       </c>
       <c r="AK121" s="1"/>
       <c r="AL121" s="1" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="AM121" s="1" t="s">
         <v>69</v>
@@ -15091,1148 +14944,6 @@
       <c r="AV121" s="1"/>
       <c r="AW121" s="1"/>
       <c r="AX121" s="1"/>
-    </row>
-    <row r="122" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A122" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D122" s="1"/>
-      <c r="E122" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F122" s="1"/>
-      <c r="G122" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H122" s="1"/>
-      <c r="I122" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J122" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K122" s="1"/>
-      <c r="L122" s="1"/>
-      <c r="M122" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N122" s="3">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="O122" s="3">
-        <v>4</v>
-      </c>
-      <c r="P122" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q122" s="1"/>
-      <c r="R122" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="S122" s="1"/>
-      <c r="T122" s="4">
-        <v>0</v>
-      </c>
-      <c r="U122" s="1"/>
-      <c r="V122" s="1"/>
-      <c r="W122" s="1"/>
-      <c r="X122" s="1"/>
-      <c r="Y122" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="Z122" s="1"/>
-      <c r="AA122" s="1"/>
-      <c r="AB122" s="1"/>
-      <c r="AC122" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="AD122" s="1"/>
-      <c r="AE122" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF122" s="1"/>
-      <c r="AG122" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH122" s="1"/>
-      <c r="AI122" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ122" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK122" s="1"/>
-      <c r="AL122" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AM122" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN122" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AO122" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AP122" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AQ122" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AR122" s="1"/>
-      <c r="AS122" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT122" s="1"/>
-      <c r="AU122" s="1"/>
-      <c r="AV122" s="1"/>
-      <c r="AW122" s="1"/>
-      <c r="AX122" s="1"/>
-    </row>
-    <row r="123" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A123" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D123" s="1"/>
-      <c r="E123" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F123" s="1"/>
-      <c r="G123" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H123" s="1"/>
-      <c r="I123" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J123" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K123" s="1"/>
-      <c r="L123" s="1"/>
-      <c r="M123" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N123" s="3">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="O123" s="3">
-        <v>4</v>
-      </c>
-      <c r="P123" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q123" s="1"/>
-      <c r="R123" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="S123" s="1"/>
-      <c r="T123" s="4">
-        <v>0</v>
-      </c>
-      <c r="U123" s="1"/>
-      <c r="V123" s="1"/>
-      <c r="W123" s="1"/>
-      <c r="X123" s="1"/>
-      <c r="Y123" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="Z123" s="1"/>
-      <c r="AA123" s="1"/>
-      <c r="AB123" s="1"/>
-      <c r="AC123" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="AD123" s="1"/>
-      <c r="AE123" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF123" s="1"/>
-      <c r="AG123" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH123" s="1"/>
-      <c r="AI123" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ123" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK123" s="1"/>
-      <c r="AL123" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AM123" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN123" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AO123" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AP123" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AQ123" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AR123" s="1"/>
-      <c r="AS123" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT123" s="1"/>
-      <c r="AU123" s="1"/>
-      <c r="AV123" s="1"/>
-      <c r="AW123" s="1"/>
-      <c r="AX123" s="1"/>
-    </row>
-    <row r="124" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A124" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D124" s="1"/>
-      <c r="E124" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F124" s="1"/>
-      <c r="G124" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H124" s="1"/>
-      <c r="I124" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J124" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K124" s="1"/>
-      <c r="L124" s="1"/>
-      <c r="M124" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N124" s="3">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="O124" s="3">
-        <v>4</v>
-      </c>
-      <c r="P124" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q124" s="1"/>
-      <c r="R124" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="S124" s="1"/>
-      <c r="T124" s="4">
-        <v>0</v>
-      </c>
-      <c r="U124" s="1"/>
-      <c r="V124" s="1"/>
-      <c r="W124" s="1"/>
-      <c r="X124" s="1"/>
-      <c r="Y124" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="Z124" s="1"/>
-      <c r="AA124" s="1"/>
-      <c r="AB124" s="1"/>
-      <c r="AC124" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="AD124" s="1"/>
-      <c r="AE124" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF124" s="1"/>
-      <c r="AG124" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH124" s="1"/>
-      <c r="AI124" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ124" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK124" s="1"/>
-      <c r="AL124" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AM124" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN124" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AO124" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AP124" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AQ124" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AR124" s="1"/>
-      <c r="AS124" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT124" s="1"/>
-      <c r="AU124" s="1"/>
-      <c r="AV124" s="1"/>
-      <c r="AW124" s="1"/>
-      <c r="AX124" s="1"/>
-    </row>
-    <row r="125" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A125" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D125" s="1"/>
-      <c r="E125" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F125" s="1"/>
-      <c r="G125" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H125" s="1"/>
-      <c r="I125" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J125" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K125" s="1"/>
-      <c r="L125" s="1"/>
-      <c r="M125" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N125" s="3">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="O125" s="3">
-        <v>4</v>
-      </c>
-      <c r="P125" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q125" s="1"/>
-      <c r="R125" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="S125" s="1"/>
-      <c r="T125" s="4">
-        <v>0</v>
-      </c>
-      <c r="U125" s="1"/>
-      <c r="V125" s="1"/>
-      <c r="W125" s="1"/>
-      <c r="X125" s="1"/>
-      <c r="Y125" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="Z125" s="1"/>
-      <c r="AA125" s="1"/>
-      <c r="AB125" s="1"/>
-      <c r="AC125" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="AD125" s="1"/>
-      <c r="AE125" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF125" s="1"/>
-      <c r="AG125" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH125" s="1"/>
-      <c r="AI125" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ125" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK125" s="1"/>
-      <c r="AL125" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AM125" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN125" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AO125" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AP125" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AQ125" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AR125" s="1"/>
-      <c r="AS125" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT125" s="1"/>
-      <c r="AU125" s="1"/>
-      <c r="AV125" s="1"/>
-      <c r="AW125" s="1"/>
-      <c r="AX125" s="1"/>
-    </row>
-    <row r="126" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A126" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D126" s="1"/>
-      <c r="E126" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F126" s="1"/>
-      <c r="G126" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H126" s="1"/>
-      <c r="I126" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J126" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K126" s="1"/>
-      <c r="L126" s="1"/>
-      <c r="M126" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N126" s="3">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="O126" s="3">
-        <v>4</v>
-      </c>
-      <c r="P126" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q126" s="1"/>
-      <c r="R126" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="S126" s="1"/>
-      <c r="T126" s="4">
-        <v>0</v>
-      </c>
-      <c r="U126" s="1"/>
-      <c r="V126" s="1"/>
-      <c r="W126" s="1"/>
-      <c r="X126" s="1"/>
-      <c r="Y126" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="Z126" s="1"/>
-      <c r="AA126" s="1"/>
-      <c r="AB126" s="1"/>
-      <c r="AC126" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="AD126" s="1"/>
-      <c r="AE126" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF126" s="1"/>
-      <c r="AG126" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH126" s="1"/>
-      <c r="AI126" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ126" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK126" s="1"/>
-      <c r="AL126" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AM126" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN126" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AO126" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AP126" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AQ126" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AR126" s="1"/>
-      <c r="AS126" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT126" s="1"/>
-      <c r="AU126" s="1"/>
-      <c r="AV126" s="1"/>
-      <c r="AW126" s="1"/>
-      <c r="AX126" s="1"/>
-    </row>
-    <row r="127" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A127" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D127" s="1"/>
-      <c r="E127" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F127" s="1"/>
-      <c r="G127" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H127" s="1"/>
-      <c r="I127" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J127" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K127" s="1"/>
-      <c r="L127" s="1"/>
-      <c r="M127" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N127" s="3">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="O127" s="3">
-        <v>4</v>
-      </c>
-      <c r="P127" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q127" s="1"/>
-      <c r="R127" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="S127" s="1"/>
-      <c r="T127" s="4">
-        <v>0</v>
-      </c>
-      <c r="U127" s="1"/>
-      <c r="V127" s="1"/>
-      <c r="W127" s="1"/>
-      <c r="X127" s="1"/>
-      <c r="Y127" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="Z127" s="1"/>
-      <c r="AA127" s="1"/>
-      <c r="AB127" s="1"/>
-      <c r="AC127" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="AD127" s="1"/>
-      <c r="AE127" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF127" s="1"/>
-      <c r="AG127" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH127" s="1"/>
-      <c r="AI127" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ127" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK127" s="1"/>
-      <c r="AL127" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AM127" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN127" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AO127" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AP127" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AQ127" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AR127" s="1"/>
-      <c r="AS127" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT127" s="1"/>
-      <c r="AU127" s="1"/>
-      <c r="AV127" s="1"/>
-      <c r="AW127" s="1"/>
-      <c r="AX127" s="1"/>
-    </row>
-    <row r="128" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A128" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D128" s="1"/>
-      <c r="E128" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F128" s="1"/>
-      <c r="G128" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H128" s="1"/>
-      <c r="I128" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J128" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K128" s="1"/>
-      <c r="L128" s="1"/>
-      <c r="M128" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N128" s="3">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="O128" s="3">
-        <v>4</v>
-      </c>
-      <c r="P128" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q128" s="1"/>
-      <c r="R128" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="S128" s="1"/>
-      <c r="T128" s="4">
-        <v>0</v>
-      </c>
-      <c r="U128" s="1"/>
-      <c r="V128" s="1"/>
-      <c r="W128" s="1"/>
-      <c r="X128" s="1"/>
-      <c r="Y128" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="Z128" s="1"/>
-      <c r="AA128" s="1"/>
-      <c r="AB128" s="1"/>
-      <c r="AC128" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="AD128" s="1"/>
-      <c r="AE128" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF128" s="1"/>
-      <c r="AG128" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH128" s="1"/>
-      <c r="AI128" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ128" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK128" s="1"/>
-      <c r="AL128" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AM128" s="1"/>
-      <c r="AN128" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AO128" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AP128" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AQ128" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AR128" s="1"/>
-      <c r="AS128" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT128" s="1"/>
-      <c r="AU128" s="1"/>
-      <c r="AV128" s="1"/>
-      <c r="AW128" s="1"/>
-      <c r="AX128" s="1"/>
-    </row>
-    <row r="129" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A129" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D129" s="1"/>
-      <c r="E129" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F129" s="1"/>
-      <c r="G129" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H129" s="1"/>
-      <c r="I129" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J129" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K129" s="1"/>
-      <c r="L129" s="1"/>
-      <c r="M129" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N129" s="3">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="O129" s="3">
-        <v>4</v>
-      </c>
-      <c r="P129" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q129" s="1"/>
-      <c r="R129" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="S129" s="1"/>
-      <c r="T129" s="4">
-        <v>0</v>
-      </c>
-      <c r="U129" s="1"/>
-      <c r="V129" s="1"/>
-      <c r="W129" s="1"/>
-      <c r="X129" s="1"/>
-      <c r="Y129" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="Z129" s="1"/>
-      <c r="AA129" s="1"/>
-      <c r="AB129" s="1"/>
-      <c r="AC129" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="AD129" s="1"/>
-      <c r="AE129" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF129" s="1"/>
-      <c r="AG129" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH129" s="1"/>
-      <c r="AI129" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ129" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK129" s="1"/>
-      <c r="AL129" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AM129" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN129" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AO129" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AP129" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AQ129" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AR129" s="1"/>
-      <c r="AS129" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT129" s="1"/>
-      <c r="AU129" s="1"/>
-      <c r="AV129" s="1"/>
-      <c r="AW129" s="1"/>
-      <c r="AX129" s="1"/>
-    </row>
-    <row r="130" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A130" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D130" s="1"/>
-      <c r="E130" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F130" s="1"/>
-      <c r="G130" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H130" s="1"/>
-      <c r="I130" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J130" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K130" s="1"/>
-      <c r="L130" s="1"/>
-      <c r="M130" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N130" s="3">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="O130" s="3">
-        <v>1</v>
-      </c>
-      <c r="P130" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q130" s="1"/>
-      <c r="R130" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="S130" s="1"/>
-      <c r="T130" s="4">
-        <v>0</v>
-      </c>
-      <c r="U130" s="1"/>
-      <c r="V130" s="1"/>
-      <c r="W130" s="1"/>
-      <c r="X130" s="1"/>
-      <c r="Y130" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="Z130" s="1"/>
-      <c r="AA130" s="1"/>
-      <c r="AB130" s="1"/>
-      <c r="AC130" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="AD130" s="1"/>
-      <c r="AE130" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF130" s="1"/>
-      <c r="AG130" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH130" s="1"/>
-      <c r="AI130" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ130" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK130" s="1"/>
-      <c r="AL130" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AM130" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN130" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AO130" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AP130" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AQ130" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AR130" s="1"/>
-      <c r="AS130" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT130" s="1"/>
-      <c r="AU130" s="1"/>
-      <c r="AV130" s="1"/>
-      <c r="AW130" s="1"/>
-      <c r="AX130" s="1"/>
-    </row>
-    <row r="131" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A131" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D131" s="1"/>
-      <c r="E131" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F131" s="1"/>
-      <c r="G131" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H131" s="1"/>
-      <c r="I131" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J131" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K131" s="1"/>
-      <c r="L131" s="1"/>
-      <c r="M131" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N131" s="3">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="O131" s="3">
-        <v>1</v>
-      </c>
-      <c r="P131" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q131" s="1"/>
-      <c r="R131" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="S131" s="1"/>
-      <c r="T131" s="4">
-        <v>0</v>
-      </c>
-      <c r="U131" s="1"/>
-      <c r="V131" s="1"/>
-      <c r="W131" s="1"/>
-      <c r="X131" s="1"/>
-      <c r="Y131" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="Z131" s="1"/>
-      <c r="AA131" s="1"/>
-      <c r="AB131" s="1"/>
-      <c r="AC131" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="AD131" s="1"/>
-      <c r="AE131" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF131" s="1"/>
-      <c r="AG131" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH131" s="1"/>
-      <c r="AI131" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ131" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK131" s="1"/>
-      <c r="AL131" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AM131" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN131" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AO131" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AP131" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AQ131" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AR131" s="1"/>
-      <c r="AS131" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT131" s="1"/>
-      <c r="AU131" s="1"/>
-      <c r="AV131" s="1"/>
-      <c r="AW131" s="1"/>
-      <c r="AX131" s="1"/>
-    </row>
-    <row r="132" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A132" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D132" s="1"/>
-      <c r="E132" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F132" s="1"/>
-      <c r="G132" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H132" s="1"/>
-      <c r="I132" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J132" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K132" s="1"/>
-      <c r="L132" s="1"/>
-      <c r="M132" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N132" s="3">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="O132" s="3">
-        <v>1</v>
-      </c>
-      <c r="P132" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q132" s="1"/>
-      <c r="R132" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="S132" s="1"/>
-      <c r="T132" s="4">
-        <v>0</v>
-      </c>
-      <c r="U132" s="1"/>
-      <c r="V132" s="1"/>
-      <c r="W132" s="1"/>
-      <c r="X132" s="1"/>
-      <c r="Y132" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="Z132" s="1"/>
-      <c r="AA132" s="1"/>
-      <c r="AB132" s="1"/>
-      <c r="AC132" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="AD132" s="1"/>
-      <c r="AE132" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF132" s="1"/>
-      <c r="AG132" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH132" s="1"/>
-      <c r="AI132" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ132" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK132" s="1"/>
-      <c r="AL132" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AM132" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN132" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AO132" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AP132" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AQ132" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AR132" s="1"/>
-      <c r="AS132" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT132" s="1"/>
-      <c r="AU132" s="1"/>
-      <c r="AV132" s="1"/>
-      <c r="AW132" s="1"/>
-      <c r="AX132" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16241,7 +14952,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E42E044-574D-443D-ABC6-D87758144AB4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FADC9D-8FC2-4C14-A155-87AF336DC550}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -16253,7 +14964,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D51852-5381-45F6-852B-5E0607548C5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1A500AF-8EB2-49CA-BC97-6F666C41CC7B}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
